--- a/outputs/ML_Results/mode_MNLR/Toulouse.xlsx
+++ b/outputs/ML_Results/mode_MNLR/Toulouse.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ21" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ9" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ5" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ0" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ17" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ62" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ4" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ2" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ26634730" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ32014163" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ38409852" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ44857256" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ51307537" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ57736840" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ04225506" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ10678379" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ17116751" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,22 +486,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-10.99637513789048</v>
+        <v>-2.346197109391079</v>
       </c>
       <c r="C2" t="n">
-        <v>2.466822748290789</v>
+        <v>-0.5921509649835368</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.7911068409878372</v>
+        <v>-1.893818875040753</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9497528648609874</v>
+        <v>0.1920143940879864</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001067378301933648</v>
+        <v>0.4796861149386406</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4007923394389752</v>
+        <v>0.105377156796309</v>
       </c>
     </row>
     <row r="3">
@@ -511,22 +511,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.0637350019401441</v>
+        <v>-0.0906090749668006</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3725657477335347</v>
+        <v>0.3647126874013824</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2659303526867666</v>
+        <v>-0.2660930790623905</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7410059424450639</v>
+        <v>0.6362100075456032</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001004211070186283</v>
+        <v>0.001245334040611746</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01406262555631935</v>
+        <v>0.01392472610282521</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.9508358553597672</v>
+        <v>-0.9195495556129289</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.9110879299206125</v>
+        <v>-0.903854275738887</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.171463845327542</v>
+        <v>-1.166189671341645</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0008870943367591653</v>
+        <v>0.001142946535224226</v>
       </c>
       <c r="F4" t="n">
-        <v>2.448704361350107e-07</v>
+        <v>2.624197954304538e-07</v>
       </c>
       <c r="G4" t="n">
-        <v>8.665838198026764e-11</v>
+        <v>9.819802012840931e-11</v>
       </c>
     </row>
     <row r="5">
@@ -561,22 +561,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2263885717637058</v>
+        <v>-0.2311044252994922</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.001834256348942056</v>
+        <v>0.003749894461348137</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6029697014445033</v>
+        <v>-0.6019277827599497</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3007168350981492</v>
+        <v>0.2897059594725543</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9895200490064949</v>
+        <v>0.978556986030471</v>
       </c>
       <c r="G5" t="n">
-        <v>8.386112749726253e-06</v>
+        <v>8.654060873802419e-06</v>
       </c>
     </row>
     <row r="6">
@@ -586,22 +586,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001015761664162724</v>
+        <v>-0.1590996504023376</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08971635776970234</v>
+        <v>0.08006410009937938</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.097788054496149</v>
+        <v>-1.113502864455527</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9983381799294614</v>
+        <v>0.7560221246714897</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8194954309523617</v>
+        <v>0.8393155523987883</v>
       </c>
       <c r="G6" t="n">
-        <v>0.007260704294087641</v>
+        <v>0.006533202321045812</v>
       </c>
     </row>
     <row r="7">
@@ -611,22 +611,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1781792023833081</v>
+        <v>-0.1663929668472705</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2440252906351782</v>
+        <v>0.2425816237034132</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.805195758547237</v>
+        <v>-0.8020478300145932</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3832525849782322</v>
+        <v>0.4108905591306641</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02878773039424973</v>
+        <v>0.0292473192964895</v>
       </c>
       <c r="G7" t="n">
-        <v>3.265317532477186e-09</v>
+        <v>3.590154096458915e-09</v>
       </c>
     </row>
     <row r="8">
@@ -636,22 +636,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1501625249260643</v>
+        <v>0.1602001336834495</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1661599619529386</v>
+        <v>0.1488315012826096</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.1646468260383554</v>
+        <v>-0.1644294105364509</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3772210135308838</v>
+        <v>0.3440846765734121</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1306358847231558</v>
+        <v>0.1743081114602245</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1034313945714256</v>
+        <v>0.1037098691515653</v>
       </c>
     </row>
     <row r="9">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.2236657046257428</v>
+        <v>-0.1875580546121588</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1342328857931556</v>
+        <v>0.127283962202147</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.02969229571742317</v>
+        <v>-0.02857438688097935</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1664544392987496</v>
+        <v>0.2437247427500043</v>
       </c>
       <c r="F9" t="n">
-        <v>0.172653885048788</v>
+        <v>0.1944709883895203</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7416338875300723</v>
+        <v>0.7509534432252198</v>
       </c>
     </row>
     <row r="10">
@@ -686,22 +686,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.527341125142369</v>
+        <v>1.509418700159226</v>
       </c>
       <c r="C10" t="n">
-        <v>2.341660809132035</v>
+        <v>2.314022456374053</v>
       </c>
       <c r="D10" t="n">
-        <v>1.439612421027094</v>
+        <v>1.432323569294125</v>
       </c>
       <c r="E10" t="n">
-        <v>3.913259030465284e-10</v>
+        <v>4.469005495280659e-10</v>
       </c>
       <c r="F10" t="n">
-        <v>4.14095417493557e-70</v>
+        <v>5.88677142067491e-69</v>
       </c>
       <c r="G10" t="n">
-        <v>6.549597318676274e-19</v>
+        <v>8.295449999671958e-19</v>
       </c>
     </row>
     <row r="11">
@@ -711,22 +711,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.335601920501689</v>
+        <v>1.316633692488272</v>
       </c>
       <c r="C11" t="n">
-        <v>2.15614039946691</v>
+        <v>2.140946967007327</v>
       </c>
       <c r="D11" t="n">
-        <v>2.122505007258495</v>
+        <v>2.113444318719552</v>
       </c>
       <c r="E11" t="n">
-        <v>9.691834530745142e-05</v>
+        <v>0.0001102321919137003</v>
       </c>
       <c r="F11" t="n">
-        <v>1.382331174538366e-27</v>
+        <v>2.106908961907197e-27</v>
       </c>
       <c r="G11" t="n">
-        <v>1.516730144855235e-25</v>
+        <v>2.042050175760643e-25</v>
       </c>
     </row>
     <row r="12">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.050586210436074</v>
+        <v>1.050711106876636</v>
       </c>
       <c r="C12" t="n">
-        <v>1.24334083600374</v>
+        <v>1.239260219962682</v>
       </c>
       <c r="D12" t="n">
-        <v>1.11534409708627</v>
+        <v>1.110213020859336</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0001184792001486053</v>
+        <v>0.0001030984842751812</v>
       </c>
       <c r="F12" t="n">
-        <v>1.385168761660836e-19</v>
+        <v>1.349826852418579e-19</v>
       </c>
       <c r="G12" t="n">
-        <v>4.354944015232985e-10</v>
+        <v>5.037877823580565e-10</v>
       </c>
     </row>
     <row r="13">
@@ -761,22 +761,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.645790952124694</v>
+        <v>1.592309045422651</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9349404660649583</v>
+        <v>0.9135237094577749</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9970095747703359</v>
+        <v>0.9928310391582111</v>
       </c>
       <c r="E13" t="n">
-        <v>1.045203567540533e-13</v>
+        <v>7.528856608209333e-13</v>
       </c>
       <c r="F13" t="n">
-        <v>2.418724045443359e-09</v>
+        <v>4.932776982950177e-09</v>
       </c>
       <c r="G13" t="n">
-        <v>6.680466039983361e-10</v>
+        <v>7.567609582810467e-10</v>
       </c>
     </row>
     <row r="14">
@@ -786,22 +786,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8620829431798995</v>
+        <v>0.8154659412031754</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9486177598103465</v>
+        <v>0.9339590213174636</v>
       </c>
       <c r="D14" t="n">
-        <v>1.628345837123231</v>
+        <v>1.622247980514478</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01740837012867646</v>
+        <v>0.02399769768967587</v>
       </c>
       <c r="F14" t="n">
-        <v>3.76133906145818e-07</v>
+        <v>5.126263183714097e-07</v>
       </c>
       <c r="G14" t="n">
-        <v>1.623516587038573e-17</v>
+        <v>1.984203094713342e-17</v>
       </c>
     </row>
     <row r="15">
@@ -811,22 +811,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.004003895912298827</v>
+        <v>-0.02290451797947266</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.2911920357228203</v>
+        <v>-0.2717574055805013</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6358007504298756</v>
+        <v>0.6326730145410107</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9853768400926775</v>
+        <v>0.9170230110224549</v>
       </c>
       <c r="F15" t="n">
-        <v>0.04244806124302301</v>
+        <v>0.05777646591682112</v>
       </c>
       <c r="G15" t="n">
-        <v>1.765318896431489e-06</v>
+        <v>1.962846599435134e-06</v>
       </c>
     </row>
     <row r="16">
@@ -836,22 +836,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.2691096590326028</v>
+        <v>-0.1375975652689039</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9453253593478398</v>
+        <v>0.954095047364895</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3928949537861418</v>
+        <v>0.3942814067393583</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5785803776110778</v>
+        <v>0.7616231989841264</v>
       </c>
       <c r="F16" t="n">
-        <v>1.981411963353965e-07</v>
+        <v>1.414877246935921e-07</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1388683240257326</v>
+        <v>0.1379362859985385</v>
       </c>
     </row>
     <row r="17">
@@ -861,22 +861,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-44.03120195624157</v>
+        <v>-21.46629590810317</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.3474412325677874</v>
+        <v>-0.2767592628619131</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3947631529978244</v>
+        <v>0.3990886424465905</v>
       </c>
       <c r="E17" t="n">
-        <v>0.999999987591808</v>
+        <v>0.9995286722151143</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4164524078066246</v>
+        <v>0.5166544418075758</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3794467220524642</v>
+        <v>0.3743172417962668</v>
       </c>
     </row>
     <row r="18">
@@ -886,22 +886,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1618321939651456</v>
+        <v>0.03334373656689552</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6018974640493939</v>
+        <v>0.5939611465986407</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8143156374618132</v>
+        <v>0.8192249754761775</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5986064477778827</v>
+        <v>0.9118440351797158</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0003709252074830736</v>
+        <v>0.0004316269083905573</v>
       </c>
       <c r="G18" t="n">
-        <v>5.153049780297792e-06</v>
+        <v>4.469322653683221e-06</v>
       </c>
     </row>
     <row r="19">
@@ -911,22 +911,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.5271251059826696</v>
+        <v>0.7235265246130209</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.2907163315024939</v>
+        <v>-0.3195475647853097</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6770174748169011</v>
+        <v>0.7069484164886601</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1422702031844495</v>
+        <v>0.0383307652396053</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2534251858358335</v>
+        <v>0.1989911389137626</v>
       </c>
       <c r="G19" t="n">
-        <v>0.001337715783785221</v>
+        <v>0.0005839900452381918</v>
       </c>
     </row>
     <row r="20">
@@ -936,22 +936,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.742016249991928</v>
+        <v>1.567111744533154</v>
       </c>
       <c r="C20" t="n">
-        <v>0.102435835795958</v>
+        <v>0.1455996513831662</v>
       </c>
       <c r="D20" t="n">
-        <v>2.027565771843048</v>
+        <v>2.007637908664436</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0002012231417132605</v>
+        <v>0.0005146344423522923</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7257609661741338</v>
+        <v>0.6153220325944919</v>
       </c>
       <c r="G20" t="n">
-        <v>2.247857808774614e-16</v>
+        <v>2.367676284759355e-16</v>
       </c>
     </row>
     <row r="21">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.6340370101454805</v>
+        <v>0.4302399203716299</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08292023190209635</v>
+        <v>0.1450720072647205</v>
       </c>
       <c r="D21" t="n">
-        <v>0.948429760456677</v>
+        <v>0.9192210494805396</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2811544950993824</v>
+        <v>0.4538464530546671</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8533123314112251</v>
+        <v>0.7437095924640613</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0008876117931748084</v>
+        <v>0.001091417041250291</v>
       </c>
     </row>
     <row r="22">
@@ -986,22 +986,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.25621634618528</v>
+        <v>-0.1172873134295387</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4423256788807223</v>
+        <v>0.4672050340679065</v>
       </c>
       <c r="D22" t="n">
-        <v>1.10146532220711</v>
+        <v>1.105777393882103</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4437407071914325</v>
+        <v>0.7140840881040521</v>
       </c>
       <c r="F22" t="n">
-        <v>0.00636128727510385</v>
+        <v>0.003761042910539304</v>
       </c>
       <c r="G22" t="n">
-        <v>1.150505863785619e-11</v>
+        <v>8.971510805650958e-12</v>
       </c>
     </row>
     <row r="23">
@@ -1011,22 +1011,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>9.769328931042372</v>
+        <v>1.026140346592777</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.6325477292119297</v>
+        <v>2.406554883006365</v>
       </c>
       <c r="D23" t="n">
-        <v>1.059155962536141</v>
+        <v>2.171243868062019</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9553530463303568</v>
+        <v>0.5171595873029909</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2448271097505493</v>
+        <v>0.000229232620064179</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2045246907283699</v>
+        <v>0.04552171166737611</v>
       </c>
     </row>
     <row r="24">
@@ -1036,22 +1036,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>7.566504674909675</v>
+        <v>-1.153670608495405</v>
       </c>
       <c r="C24" t="n">
-        <v>-2.603571416272205</v>
+        <v>0.4458884664114637</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.793897458549091</v>
+        <v>-0.6800732573624291</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9654130088902798</v>
+        <v>0.4708608018787088</v>
       </c>
       <c r="F24" t="n">
-        <v>3.700154635550169e-06</v>
+        <v>0.5034344049356153</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03386264849597116</v>
+        <v>0.5341375405442591</v>
       </c>
     </row>
     <row r="25">
@@ -1061,22 +1061,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11.27637049123708</v>
+        <v>2.311270990515435</v>
       </c>
       <c r="C25" t="n">
-        <v>1.140403632344826</v>
+        <v>4.16916630890231</v>
       </c>
       <c r="D25" t="n">
-        <v>2.388830249549755</v>
+        <v>3.488143004600851</v>
       </c>
       <c r="E25" t="n">
-        <v>0.948475453155377</v>
+        <v>0.2157579012809225</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1039792132116837</v>
+        <v>1.272017588070691e-07</v>
       </c>
       <c r="G25" t="n">
-        <v>0.009158770252504814</v>
+        <v>0.002422890997783519</v>
       </c>
     </row>
     <row r="26">
@@ -1086,422 +1086,397 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>10.32629213712935</v>
+        <v>1.627898733704292</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.7473235569694664</v>
+        <v>2.258767415326175</v>
       </c>
       <c r="D26" t="n">
-        <v>1.165485043805172</v>
+        <v>2.285969607650801</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9528104511801209</v>
+        <v>0.2919692135879168</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1467849008477533</v>
+        <v>0.0003191516508509997</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1561858222788438</v>
+        <v>0.03358236821251923</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>10.83761344835523</v>
+        <v>2.308905608360915</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.9039609543135596</v>
+        <v>1.993058216645086</v>
       </c>
       <c r="D27" t="n">
-        <v>1.245242621830253</v>
+        <v>2.24077516830782</v>
       </c>
       <c r="E27" t="n">
-        <v>0.950476729211098</v>
+        <v>0.1340409972301231</v>
       </c>
       <c r="F27" t="n">
-        <v>0.08362708144953207</v>
+        <v>0.001492421432748359</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1312170434756826</v>
+        <v>0.03731581838987075</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>11.2103667694543</v>
+        <v>-0.3813322923764955</v>
       </c>
       <c r="C28" t="n">
-        <v>-1.063476321271724</v>
+        <v>0.06430914876127597</v>
       </c>
       <c r="D28" t="n">
-        <v>1.148235289043233</v>
+        <v>0.4717143828447654</v>
       </c>
       <c r="E28" t="n">
-        <v>0.948775682857272</v>
+        <v>0.002204147362287937</v>
       </c>
       <c r="F28" t="n">
-        <v>0.03851657624250857</v>
+        <v>0.3992826664466068</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1619274042957934</v>
+        <v>3.057165702414656e-11</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.493211215656753</v>
+        <v>-0.006620889673232359</v>
       </c>
       <c r="C29" t="n">
-        <v>0.06086191280105147</v>
+        <v>-0.00498448945276234</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4674151716787069</v>
+        <v>-0.009818217713682013</v>
       </c>
       <c r="E29" t="n">
-        <v>9.548750672951428e-05</v>
+        <v>0.3112108977390275</v>
       </c>
       <c r="F29" t="n">
-        <v>0.4261512670852374</v>
+        <v>0.2389462995379991</v>
       </c>
       <c r="G29" t="n">
-        <v>4.871669346305357e-11</v>
+        <v>0.01120488014481484</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Trip_Distance</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.004865034096758555</v>
+        <v>-0.0002900262539492361</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.005576748954765282</v>
+        <v>-0.00193331708407626</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.009614884760762551</v>
+        <v>5.092455421739818e-05</v>
       </c>
       <c r="E30" t="n">
-        <v>0.4586030100419587</v>
+        <v>7.745634653963842e-29</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1896039098327219</v>
+        <v>2.162989803587695e-296</v>
       </c>
       <c r="G30" t="n">
-        <v>0.013099504494865</v>
+        <v>8.483065884071489e-18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Trip_Distance</t>
+          <t>CarOwnershipHH</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.0003229523974706744</v>
+        <v>-2.116691048116604</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.00195106970513319</v>
+        <v>-2.511727362361595</v>
       </c>
       <c r="D31" t="n">
-        <v>5.053918259114161e-05</v>
+        <v>-3.116079785193274</v>
       </c>
       <c r="E31" t="n">
-        <v>3.448416915475572e-31</v>
+        <v>1.336475918724838e-21</v>
       </c>
       <c r="F31" t="n">
-        <v>1.519710350675029e-297</v>
+        <v>2.201247988280669e-54</v>
       </c>
       <c r="G31" t="n">
-        <v>1.643094988299731e-17</v>
+        <v>2.033783863704651e-105</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-2.179290265091939</v>
+        <v>0.1448809598874408</v>
       </c>
       <c r="C32" t="n">
-        <v>-2.522710454637997</v>
+        <v>0.06388753146447433</v>
       </c>
       <c r="D32" t="n">
-        <v>-3.136473830588</v>
+        <v>-0.009261507312426564</v>
       </c>
       <c r="E32" t="n">
-        <v>1.96118807914645e-22</v>
+        <v>0.002980688052346572</v>
       </c>
       <c r="F32" t="n">
-        <v>4.971538216458495e-54</v>
+        <v>0.05734701167383236</v>
       </c>
       <c r="G32" t="n">
-        <v>1.179617550016863e-105</v>
+        <v>0.7601812501577103</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>UrbPopDensity_origin</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1487106328746256</v>
+        <v>6.772032364911777e-05</v>
       </c>
       <c r="C33" t="n">
-        <v>0.06492273663295511</v>
+        <v>0.000122780326095207</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.007705886054904863</v>
+        <v>0.0001826826100053311</v>
       </c>
       <c r="E33" t="n">
-        <v>0.002496204389451102</v>
+        <v>0.1303778298510868</v>
       </c>
       <c r="F33" t="n">
-        <v>0.05420103487450599</v>
+        <v>5.899388502607619e-06</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7998334523191104</v>
+        <v>7.923741699182249e-13</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
+          <t>DistSubcenter_origin</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>7.396071931806639e-05</v>
+        <v>-0.02562551440243843</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0001240086035739082</v>
+        <v>-0.009438516671613568</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0001834530206555215</v>
+        <v>0.007517634386392226</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1025475140741074</v>
+        <v>0.5370647243939752</v>
       </c>
       <c r="F34" t="n">
-        <v>5.186952631009663e-06</v>
+        <v>0.6527150950333487</v>
       </c>
       <c r="G34" t="n">
-        <v>6.75056579899557e-13</v>
+        <v>0.7144564023733324</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
+          <t>DistCenter_origin</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.04953038378672998</v>
+        <v>-0.04819766306742819</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.01014768601575714</v>
+        <v>-0.03318700422742071</v>
       </c>
       <c r="D35" t="n">
-        <v>0.007381188570686004</v>
+        <v>-0.1307404963501102</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2342147301496337</v>
+        <v>0.1004459370408812</v>
       </c>
       <c r="F35" t="n">
-        <v>0.6297670807145475</v>
+        <v>0.01924103613795777</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7195072231177584</v>
+        <v>1.579277448694824e-17</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
+          <t>UrbBuildDensity_origin</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.03574129959096731</v>
+        <v>-2.005068092941109e-08</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.03262649568611193</v>
+        <v>-3.510651708757632e-08</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.1301037842205526</v>
+        <v>-5.389984902401542e-08</v>
       </c>
       <c r="E36" t="n">
-        <v>0.2149616448105157</v>
+        <v>0.6042732116391709</v>
       </c>
       <c r="F36" t="n">
-        <v>0.02174707598679987</v>
+        <v>0.1191084792740418</v>
       </c>
       <c r="G36" t="n">
-        <v>2.228026031433261e-17</v>
+        <v>0.01484788667896861</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
+          <t>IntersecDensity_origin</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-2.911992135603978e-08</v>
+        <v>-0.0038374607801997</v>
       </c>
       <c r="C37" t="n">
-        <v>-3.305274838433158e-08</v>
+        <v>0.005306495032292066</v>
       </c>
       <c r="D37" t="n">
-        <v>-5.441571679044157e-08</v>
+        <v>-0.001386349920059138</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4612691090798161</v>
+        <v>0.3917455568778933</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1438925722266125</v>
+        <v>0.05003316936290738</v>
       </c>
       <c r="G37" t="n">
-        <v>0.01412780432696109</v>
+        <v>0.5839274057669281</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
+          <t>street_length_origin</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.00505293755149611</v>
+        <v>-0.002012590297947164</v>
       </c>
       <c r="C38" t="n">
-        <v>0.005348172378304604</v>
+        <v>0.008016882632678678</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.001391173651389507</v>
+        <v>-0.001755113430826854</v>
       </c>
       <c r="E38" t="n">
-        <v>0.2622159754841371</v>
+        <v>0.7144972697212604</v>
       </c>
       <c r="F38" t="n">
-        <v>0.04856526128344416</v>
+        <v>0.009569438255141113</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5828405881859479</v>
+        <v>0.4405728443115643</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
+          <t>bike_lane_share_origin</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.0009028719419006938</v>
+        <v>2.601978085840567</v>
       </c>
       <c r="C39" t="n">
-        <v>0.008132504255872114</v>
+        <v>1.669296401609049</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.001755639309842187</v>
+        <v>-1.292587404639764</v>
       </c>
       <c r="E39" t="n">
-        <v>0.8647000722569322</v>
+        <v>0.002366235558371231</v>
       </c>
       <c r="F39" t="n">
-        <v>0.007780368106738447</v>
+        <v>0.006087680319303827</v>
       </c>
       <c r="G39" t="n">
-        <v>0.4403439144007635</v>
+        <v>0.02352318437385389</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
+          <t>LU_UrbFab_origin</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2.897615040999244</v>
+        <v>0.4124829015059452</v>
       </c>
       <c r="C40" t="n">
-        <v>1.688663258100769</v>
+        <v>-0.1760446076864007</v>
       </c>
       <c r="D40" t="n">
-        <v>-1.280101925503323</v>
+        <v>-1.164523894349013</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0008448589748953443</v>
+        <v>0.3967153407981597</v>
       </c>
       <c r="F40" t="n">
-        <v>0.005728764191851411</v>
+        <v>0.5191069778631048</v>
       </c>
       <c r="G40" t="n">
-        <v>0.02507806769087238</v>
+        <v>2.176308781594807e-05</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
+          <t>LU_Comm_origin</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.3746294063112104</v>
+        <v>0.4137369734066578</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.150569526685018</v>
+        <v>1.072196212277887</v>
       </c>
       <c r="D41" t="n">
-        <v>-1.16989498513281</v>
+        <v>0.6313459718636101</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4437087644173997</v>
+        <v>0.5922461397575707</v>
       </c>
       <c r="F41" t="n">
-        <v>0.5823100787136419</v>
+        <v>0.0144215123084478</v>
       </c>
       <c r="G41" t="n">
-        <v>2.011503549031469e-05</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>LU_Comm_origin</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>0.121941049792834</v>
-      </c>
-      <c r="C42" t="n">
-        <v>1.072381246313035</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.62734982049161</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.877084063500196</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.01462031944550833</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.1161056192633938</v>
+        <v>0.1136318976144938</v>
       </c>
     </row>
   </sheetData>
@@ -1515,7 +1490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1888,7 +1863,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -1901,7 +1876,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -1914,7 +1889,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -1927,7 +1902,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Trip_Distance</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
@@ -1940,7 +1915,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Trip_Distance</t>
+          <t>CarOwnershipHH</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -1953,7 +1928,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -1966,7 +1941,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>UrbPopDensity_origin</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -1979,7 +1954,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
+          <t>DistSubcenter_origin</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -1992,7 +1967,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
+          <t>DistCenter_origin</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -2005,7 +1980,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
+          <t>UrbBuildDensity_origin</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -2018,7 +1993,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
+          <t>IntersecDensity_origin</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -2031,7 +2006,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
+          <t>street_length_origin</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -2044,7 +2019,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
+          <t>bike_lane_share_origin</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -2057,7 +2032,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
+          <t>LU_UrbFab_origin</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -2070,7 +2045,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
+          <t>LU_Comm_origin</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -2079,19 +2054,6 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>LU_Comm_origin</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2104,7 +2066,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2156,22 +2118,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-9.585414747148207</v>
+        <v>-28.02861027490497</v>
       </c>
       <c r="C2" t="n">
-        <v>2.028306817511261</v>
+        <v>2.053733894650783</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.07383955099053455</v>
+        <v>-0.05589483090795852</v>
       </c>
       <c r="E2" t="n">
-        <v>0.902555538418171</v>
+        <v>0.9999725342335071</v>
       </c>
       <c r="F2" t="n">
-        <v>0.005300921331238555</v>
+        <v>0.004786482702677567</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9196312613897306</v>
+        <v>0.9390442857378134</v>
       </c>
     </row>
     <row r="3">
@@ -2181,22 +2143,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.2850667263982704</v>
+        <v>-0.2771751614342922</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3819155190811647</v>
+        <v>0.3774357633120236</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.3690961236279762</v>
+        <v>-0.3648091705738556</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1601947654445254</v>
+        <v>0.1719204249160117</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0006695400284493797</v>
+        <v>0.0007707588297703562</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0007402304201610391</v>
+        <v>0.0008419169913745975</v>
       </c>
     </row>
     <row r="4">
@@ -2206,22 +2168,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.056481945909433</v>
+        <v>-1.05216970869851</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.000833400087903</v>
+        <v>-1.007297024305378</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.196851533034147</v>
+        <v>-1.192251434606606</v>
       </c>
       <c r="E4" t="n">
-        <v>0.000393285216702754</v>
+        <v>0.0004173891589755804</v>
       </c>
       <c r="F4" t="n">
-        <v>1.031311892230187e-08</v>
+        <v>8.403191749549314e-09</v>
       </c>
       <c r="G4" t="n">
-        <v>1.614073553888862e-11</v>
+        <v>1.873832623977785e-11</v>
       </c>
     </row>
     <row r="5">
@@ -2231,22 +2193,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1573888194035481</v>
+        <v>-0.1559767585508237</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03641052576131991</v>
+        <v>0.03459304275233666</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6483936793362192</v>
+        <v>-0.6464597004661563</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4514037739948813</v>
+        <v>0.4554889653400681</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7906475490126317</v>
+        <v>0.8006770713603664</v>
       </c>
       <c r="G5" t="n">
-        <v>1.421794668658858e-06</v>
+        <v>1.505173433370699e-06</v>
       </c>
     </row>
     <row r="6">
@@ -2256,22 +2218,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.05228977613521115</v>
+        <v>-0.04316198077884791</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09408374222195034</v>
+        <v>0.09523349122490088</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.923799176936446</v>
+        <v>-0.9133632992843393</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9133410391926406</v>
+        <v>0.928305229755385</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8081056792849381</v>
+        <v>0.80608548365748</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01191018513608397</v>
+        <v>0.01298285358543095</v>
       </c>
     </row>
     <row r="7">
@@ -2281,22 +2243,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.2635383139700484</v>
+        <v>-0.2577778804589973</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1942052700438616</v>
+        <v>0.1925932448325604</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.8400092280723198</v>
+        <v>-0.8339370346796149</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2041940190171284</v>
+        <v>0.2143130049609204</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08000365817342892</v>
+        <v>0.08236859049596333</v>
       </c>
       <c r="G7" t="n">
-        <v>4.605603345988905e-10</v>
+        <v>5.801135148675307e-10</v>
       </c>
     </row>
     <row r="8">
@@ -2306,22 +2268,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.05957408664212966</v>
+        <v>0.06407983210811204</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.04505068139174043</v>
+        <v>-0.04823366020715044</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2074767753140281</v>
+        <v>-0.2020678388757271</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7292513964927116</v>
+        <v>0.7096443371235334</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6784213864663793</v>
+        <v>0.6569386818062092</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03947271761703603</v>
+        <v>0.04468538645265036</v>
       </c>
     </row>
     <row r="9">
@@ -2331,22 +2293,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.2354389490962828</v>
+        <v>-0.2287540734964603</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.02550418612774956</v>
+        <v>-0.03246039322232597</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.03824947302960559</v>
+        <v>-0.03695005361701501</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1504200949678944</v>
+        <v>0.1620599474467386</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7929725558852362</v>
+        <v>0.7380072235982786</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6700876887827609</v>
+        <v>0.6804313238950369</v>
       </c>
     </row>
     <row r="10">
@@ -2356,22 +2318,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.468938096576889</v>
+        <v>1.459550843329836</v>
       </c>
       <c r="C10" t="n">
-        <v>2.20324624132258</v>
+        <v>2.203573256304335</v>
       </c>
       <c r="D10" t="n">
-        <v>1.554273836674569</v>
+        <v>1.538205409403476</v>
       </c>
       <c r="E10" t="n">
-        <v>6.675477135374234e-09</v>
+        <v>8.369281358238024e-09</v>
       </c>
       <c r="F10" t="n">
-        <v>3.62551264866187e-64</v>
+        <v>3.166503116918551e-64</v>
       </c>
       <c r="G10" t="n">
-        <v>1.215309286670184e-20</v>
+        <v>2.397911097450107e-20</v>
       </c>
     </row>
     <row r="11">
@@ -2381,22 +2343,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.237493640096011</v>
+        <v>1.229036828719449</v>
       </c>
       <c r="C11" t="n">
-        <v>2.002137111556845</v>
+        <v>2.001085282846241</v>
       </c>
       <c r="D11" t="n">
-        <v>2.211839374027678</v>
+        <v>2.1967437493783</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0003650016049421433</v>
+        <v>0.000398494516167385</v>
       </c>
       <c r="F11" t="n">
-        <v>5.661028528812432e-24</v>
+        <v>5.737366732154092e-24</v>
       </c>
       <c r="G11" t="n">
-        <v>1.16648501421777e-26</v>
+        <v>2.173291256920765e-26</v>
       </c>
     </row>
     <row r="12">
@@ -2406,22 +2368,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.120325670317358</v>
+        <v>1.112093416570588</v>
       </c>
       <c r="C12" t="n">
-        <v>1.118899979902821</v>
+        <v>1.121251599422437</v>
       </c>
       <c r="D12" t="n">
-        <v>1.24733291678793</v>
+        <v>1.235371350303732</v>
       </c>
       <c r="E12" t="n">
-        <v>5.441521066776095e-05</v>
+        <v>6.186063912199255e-05</v>
       </c>
       <c r="F12" t="n">
-        <v>1.481008525484086e-16</v>
+        <v>1.245515949499969e-16</v>
       </c>
       <c r="G12" t="n">
-        <v>8.936945228060995e-12</v>
+        <v>1.277874196606659e-11</v>
       </c>
     </row>
     <row r="13">
@@ -2431,22 +2393,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.662885579766018</v>
+        <v>1.657390545359205</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8367480865329844</v>
+        <v>0.8372619139610411</v>
       </c>
       <c r="D13" t="n">
-        <v>1.105400496304456</v>
+        <v>1.096070733942056</v>
       </c>
       <c r="E13" t="n">
-        <v>1.757446302799547e-13</v>
+        <v>2.144077266002726e-13</v>
       </c>
       <c r="F13" t="n">
-        <v>8.204848968921012e-08</v>
+        <v>7.974839113584685e-08</v>
       </c>
       <c r="G13" t="n">
-        <v>3.574233548615776e-11</v>
+        <v>4.916387601917332e-11</v>
       </c>
     </row>
     <row r="14">
@@ -2456,22 +2418,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8885189410072343</v>
+        <v>0.8784368652491129</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8980074649716986</v>
+        <v>0.8995323919476818</v>
       </c>
       <c r="D14" t="n">
-        <v>1.672993831108815</v>
+        <v>1.660798130385656</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01793846997108178</v>
+        <v>0.01927321199815222</v>
       </c>
       <c r="F14" t="n">
-        <v>1.265776087085755e-06</v>
+        <v>1.177045337313529e-06</v>
       </c>
       <c r="G14" t="n">
-        <v>1.761741637074589e-17</v>
+        <v>2.6913870021018e-17</v>
       </c>
     </row>
     <row r="15">
@@ -2481,22 +2443,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.03323048298318434</v>
+        <v>0.02166261035006135</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.2158823063115266</v>
+        <v>-0.2076663719677825</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7182872269034758</v>
+        <v>0.7117184633519767</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8787105031456055</v>
+        <v>0.9206433659916342</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1274198151645633</v>
+        <v>0.1417191483218381</v>
       </c>
       <c r="G15" t="n">
-        <v>4.831034528216166e-08</v>
+        <v>6.236069631184493e-08</v>
       </c>
     </row>
     <row r="16">
@@ -2506,22 +2468,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.4088207679241232</v>
+        <v>-0.4180969706942514</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9253805762258667</v>
+        <v>0.9288471538211214</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7320275504677274</v>
+        <v>0.7288814215542505</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4434035885452432</v>
+        <v>0.4332113229506849</v>
       </c>
       <c r="F16" t="n">
-        <v>1.80012975877634e-07</v>
+        <v>1.611986959122483e-07</v>
       </c>
       <c r="G16" t="n">
-        <v>0.003280056863741175</v>
+        <v>0.00341547002838751</v>
       </c>
     </row>
     <row r="17">
@@ -2531,22 +2493,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-13.67616758966143</v>
+        <v>-11.96768232618937</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.2327417777067915</v>
+        <v>-0.2104565226146051</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6321436856282272</v>
+        <v>0.6087123278882353</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9848938693994522</v>
+        <v>0.9683940852085671</v>
       </c>
       <c r="F17" t="n">
-        <v>0.592942588084286</v>
+        <v>0.6273609109643987</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1199222452452425</v>
+        <v>0.1353875470644487</v>
       </c>
     </row>
     <row r="18">
@@ -2556,22 +2518,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.5257424559988629</v>
+        <v>-0.5338544167528811</v>
       </c>
       <c r="C18" t="n">
-        <v>0.624803573733836</v>
+        <v>0.6286263194670648</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8135294341070672</v>
+        <v>0.8129046131396188</v>
       </c>
       <c r="E18" t="n">
-        <v>0.09184575482407199</v>
+        <v>0.08680563387521295</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0001789138283102532</v>
+        <v>0.0001615671869972883</v>
       </c>
       <c r="G18" t="n">
-        <v>4.919735299086149e-06</v>
+        <v>4.852903635183719e-06</v>
       </c>
     </row>
     <row r="19">
@@ -2581,22 +2543,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.4961774604876526</v>
+        <v>0.6250582926611805</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.3375115026400049</v>
+        <v>-0.359018693840898</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5453675157136251</v>
+        <v>0.6503006904254806</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1853546585123728</v>
+        <v>0.08801164789846927</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1825720273900703</v>
+        <v>0.1496498540092857</v>
       </c>
       <c r="G19" t="n">
-        <v>0.009218466141403907</v>
+        <v>0.001537657396513528</v>
       </c>
     </row>
     <row r="20">
@@ -2606,22 +2568,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.153191315830362</v>
+        <v>2.037964065675153</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3362948526065377</v>
+        <v>0.3653392340515574</v>
       </c>
       <c r="D20" t="n">
-        <v>2.090943614615979</v>
+        <v>2.009866597643513</v>
       </c>
       <c r="E20" t="n">
-        <v>1.191908336479891e-06</v>
+        <v>2.40191394422026e-06</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2358415218593852</v>
+        <v>0.195358119719431</v>
       </c>
       <c r="G20" t="n">
-        <v>1.077361384193726e-17</v>
+        <v>7.890030617738639e-17</v>
       </c>
     </row>
     <row r="21">
@@ -2631,22 +2593,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.6721386290747964</v>
+        <v>0.5366874124872516</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2552676894609273</v>
+        <v>0.3006531301805114</v>
       </c>
       <c r="D21" t="n">
-        <v>1.073834851815922</v>
+        <v>0.9643883010216133</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2506444792494467</v>
+        <v>0.3508988411418636</v>
       </c>
       <c r="F21" t="n">
-        <v>0.547919750809805</v>
+        <v>0.4759440700123525</v>
       </c>
       <c r="G21" t="n">
-        <v>9.509880604504754e-05</v>
+        <v>0.0003669952472133688</v>
       </c>
     </row>
     <row r="22">
@@ -2656,22 +2618,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.1263872650294709</v>
+        <v>-0.1384826658844597</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3681647886132084</v>
+        <v>0.3766447709669636</v>
       </c>
       <c r="D22" t="n">
-        <v>1.120172017895393</v>
+        <v>1.109039254293176</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6971617113748703</v>
+        <v>0.6697970529755979</v>
       </c>
       <c r="F22" t="n">
-        <v>0.02141787719952502</v>
+        <v>0.01850410538829443</v>
       </c>
       <c r="G22" t="n">
-        <v>7.143920196086838e-12</v>
+        <v>1.074955194669652e-11</v>
       </c>
     </row>
     <row r="23">
@@ -2681,22 +2643,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>7.976047974762554</v>
+        <v>26.52882428304393</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.448677923413326</v>
+        <v>-0.4592600316141884</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1343076681140864</v>
+        <v>0.1948630809365798</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9188494121398677</v>
+        <v>0.9999740039022286</v>
       </c>
       <c r="F23" t="n">
-        <v>0.389699205283909</v>
+        <v>0.3784372769741029</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8182071891175119</v>
+        <v>0.7379492036763353</v>
       </c>
     </row>
     <row r="24">
@@ -2706,22 +2668,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6.284098430580533</v>
+        <v>24.84248531197653</v>
       </c>
       <c r="C24" t="n">
-        <v>-2.380367524740258</v>
+        <v>-2.392161592477311</v>
       </c>
       <c r="D24" t="n">
-        <v>-2.647321003810057</v>
+        <v>-2.57968087499321</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9360220290523609</v>
+        <v>0.9999756563777505</v>
       </c>
       <c r="F24" t="n">
-        <v>1.068323890674125e-05</v>
+        <v>9.560361197218256e-06</v>
       </c>
       <c r="G24" t="n">
-        <v>1.007501216379722e-05</v>
+        <v>1.582820469329564e-05</v>
       </c>
     </row>
     <row r="25">
@@ -2731,22 +2693,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5.143305471741741</v>
+        <v>-8.142118160731474</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7681917930433388</v>
+        <v>0.7622299008691872</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7499274016508876</v>
+        <v>0.7611389090242481</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9478725067001618</v>
+        <v>0.9999998932172794</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2432179155301762</v>
+        <v>0.2467531144790881</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2744964072452093</v>
+        <v>0.2663163642231136</v>
       </c>
     </row>
     <row r="26">
@@ -2756,422 +2718,397 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>8.957121338954883</v>
+        <v>27.53438806613023</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.4563457610023038</v>
+        <v>-0.4906745068023671</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2695204578572211</v>
+        <v>0.3625794249241299</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9089079237910435</v>
+        <v>0.9999730185312173</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3553995121782615</v>
+        <v>0.318920712561017</v>
       </c>
       <c r="G26" t="n">
-        <v>0.634547444221856</v>
+        <v>0.5205411202703982</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>9.294273928551304</v>
+        <v>28.0935644429751</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.581953538566537</v>
+        <v>-0.7179867598892085</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5531148569044541</v>
+        <v>0.2985091814045272</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9054950237526497</v>
+        <v>0.9999724705836867</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2455968838199289</v>
+        <v>0.1452117440257628</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3327217056613467</v>
+        <v>0.5970426169259648</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>9.646973045500259</v>
+        <v>-0.4508997976511267</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.7236272163406848</v>
+        <v>0.09247845552444518</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3095066007326354</v>
+        <v>0.4212939368748145</v>
       </c>
       <c r="E28" t="n">
-        <v>0.901926285475342</v>
+        <v>0.0003667436913746475</v>
       </c>
       <c r="F28" t="n">
-        <v>0.142107773759707</v>
+        <v>0.2219615915723303</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5843723511780772</v>
+        <v>2.280746970025041e-09</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.4562571340321516</v>
+        <v>0.003132871245003567</v>
       </c>
       <c r="C29" t="n">
-        <v>0.09080972406753791</v>
+        <v>-0.006967146151864773</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4148445015186081</v>
+        <v>-0.01010453352096389</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0003159801514799628</v>
+        <v>0.6325937810824138</v>
       </c>
       <c r="F29" t="n">
-        <v>0.230501585694586</v>
+        <v>0.09769867235892385</v>
       </c>
       <c r="G29" t="n">
-        <v>4.176214041790728e-09</v>
+        <v>0.008613906670059776</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Trip_Distance</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.0034832516053346</v>
+        <v>-0.0003044919744738286</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.007253765844599535</v>
+        <v>-0.001931021532309853</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.009656504833927165</v>
+        <v>5.242044237147306e-05</v>
       </c>
       <c r="E30" t="n">
-        <v>0.5952200976990987</v>
+        <v>5.069374393021952e-30</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08515751652670954</v>
+        <v>1.306760534229663e-295</v>
       </c>
       <c r="G30" t="n">
-        <v>0.01223897658290915</v>
+        <v>5.232800239357843e-19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Trip_Distance</t>
+          <t>CarOwnershipHH</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.0003043294745719073</v>
+        <v>-2.017123344263735</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.001929448642554578</v>
+        <v>-2.447571037619912</v>
       </c>
       <c r="D31" t="n">
-        <v>5.208261154166806e-05</v>
+        <v>-3.071533018409506</v>
       </c>
       <c r="E31" t="n">
-        <v>5.302541835016737e-30</v>
+        <v>3.841988026781107e-19</v>
       </c>
       <c r="F31" t="n">
-        <v>3.81766588263517e-295</v>
+        <v>7.004758446060198e-55</v>
       </c>
       <c r="G31" t="n">
-        <v>9.090116964099298e-19</v>
+        <v>4.747937041171809e-110</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-2.044852782244161</v>
+        <v>0.1278933692915748</v>
       </c>
       <c r="C32" t="n">
-        <v>-2.441874797489796</v>
+        <v>0.02649427198753291</v>
       </c>
       <c r="D32" t="n">
-        <v>-3.097098506967491</v>
+        <v>-0.0217672902121199</v>
       </c>
       <c r="E32" t="n">
-        <v>1.580794647021401e-19</v>
+        <v>0.009215924575798548</v>
       </c>
       <c r="F32" t="n">
-        <v>2.142416786506007e-54</v>
+        <v>0.425202620274393</v>
       </c>
       <c r="G32" t="n">
-        <v>7.257387524786117e-111</v>
+        <v>0.4690395752584599</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>UrbPopDensity_origin</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1313244981905872</v>
+        <v>9.195008391299573e-05</v>
       </c>
       <c r="C33" t="n">
-        <v>0.02561022010484916</v>
+        <v>0.0001227442592576484</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.01856642577928036</v>
+        <v>0.000164420762566023</v>
       </c>
       <c r="E33" t="n">
-        <v>0.007670918022266871</v>
+        <v>0.0401611762388225</v>
       </c>
       <c r="F33" t="n">
-        <v>0.4408777310357571</v>
+        <v>6.666519929208638e-06</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5375671066185272</v>
+        <v>1.249819321095959e-10</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
+          <t>DistSubcenter_origin</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>9.267813876451573e-05</v>
+        <v>-0.06381973707156072</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0001222691597729729</v>
+        <v>-0.001668177557330438</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0001654215456526453</v>
+        <v>0.01500648142758551</v>
       </c>
       <c r="E34" t="n">
-        <v>0.03915900027030569</v>
+        <v>0.1358476697014662</v>
       </c>
       <c r="F34" t="n">
-        <v>7.218809000870808e-06</v>
+        <v>0.9356533430662729</v>
       </c>
       <c r="G34" t="n">
-        <v>1.050849576299328e-10</v>
+        <v>0.467604182429369</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
+          <t>DistCenter_origin</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.06380971423533439</v>
+        <v>-0.06988320160879592</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.001470948579082354</v>
+        <v>-0.03301915070449751</v>
       </c>
       <c r="D35" t="n">
-        <v>0.01472670305072842</v>
+        <v>-0.1396916777906471</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1363008967993796</v>
+        <v>0.01965068031429039</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9432382177501827</v>
+        <v>0.01802376035781424</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4764611670117881</v>
+        <v>1.869779836883518e-19</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
+          <t>UrbBuildDensity_origin</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.06851235069623395</v>
+        <v>-5.457377813639268e-09</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.03304483038609045</v>
+        <v>-4.04354761552078e-08</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.138640024553117</v>
+        <v>-5.43124031071874e-08</v>
       </c>
       <c r="E36" t="n">
-        <v>0.02236951015986377</v>
+        <v>0.8863406535898469</v>
       </c>
       <c r="F36" t="n">
-        <v>0.01789713740212843</v>
+        <v>0.07598092034218032</v>
       </c>
       <c r="G36" t="n">
-        <v>3.741984736973108e-19</v>
+        <v>0.01505739636261919</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
+          <t>IntersecDensity_origin</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-8.12464163283019e-09</v>
+        <v>-0.006070198060651971</v>
       </c>
       <c r="C37" t="n">
-        <v>-3.830257966472025e-08</v>
+        <v>0.005715951362031186</v>
       </c>
       <c r="D37" t="n">
-        <v>-5.709049488705009e-08</v>
+        <v>0.001014222328049337</v>
       </c>
       <c r="E37" t="n">
-        <v>0.8326767500885892</v>
+        <v>0.1853202553866905</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0928185300800901</v>
+        <v>0.03481652286573397</v>
       </c>
       <c r="G37" t="n">
-        <v>0.01103339475318962</v>
+        <v>0.6860558460791735</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
+          <t>street_length_origin</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.005996006752526157</v>
+        <v>-0.0007636461130460118</v>
       </c>
       <c r="C38" t="n">
-        <v>0.005837754080678922</v>
+        <v>0.01007109980102024</v>
       </c>
       <c r="D38" t="n">
-        <v>0.001064728615041914</v>
+        <v>-0.00117871551754636</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1908849881729662</v>
+        <v>0.8848795945868878</v>
       </c>
       <c r="F38" t="n">
-        <v>0.03113611260373805</v>
+        <v>0.0006343811864426355</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6715543757790905</v>
+        <v>0.5993687095614497</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
+          <t>bike_lane_share_origin</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.000683132965106516</v>
+        <v>1.562297937735359</v>
       </c>
       <c r="C39" t="n">
-        <v>0.01031138200002652</v>
+        <v>1.735202354571445</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.001128354386683986</v>
+        <v>-1.528400479366725</v>
       </c>
       <c r="E39" t="n">
-        <v>0.8966898441945244</v>
+        <v>0.07406416525684056</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0004545764386291766</v>
+        <v>0.004508393471739005</v>
       </c>
       <c r="G39" t="n">
-        <v>0.615071172637075</v>
+        <v>0.007354845399099361</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
+          <t>LU_UrbFab_origin</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.598087140312116</v>
+        <v>0.3172465312540143</v>
       </c>
       <c r="C40" t="n">
-        <v>1.717075294070914</v>
+        <v>-0.03346924642882827</v>
       </c>
       <c r="D40" t="n">
-        <v>-1.511677152811301</v>
+        <v>-1.078945927937753</v>
       </c>
       <c r="E40" t="n">
-        <v>0.06840422807217345</v>
+        <v>0.5255793764576064</v>
       </c>
       <c r="F40" t="n">
-        <v>0.004952347582463813</v>
+        <v>0.9025145273158981</v>
       </c>
       <c r="G40" t="n">
-        <v>0.00812415848187069</v>
+        <v>7.808258960956315e-05</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
+          <t>LU_Comm_origin</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.3037173819747228</v>
+        <v>-0.2796370646689132</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.02052322133151507</v>
+        <v>1.407272762865695</v>
       </c>
       <c r="D41" t="n">
-        <v>-1.090339694918197</v>
+        <v>0.670140024988666</v>
       </c>
       <c r="E41" t="n">
-        <v>0.5434438764070555</v>
+        <v>0.7265938891276449</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9401818131723717</v>
+        <v>0.001277603030880009</v>
       </c>
       <c r="G41" t="n">
-        <v>6.626025522634599e-05</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>LU_Comm_origin</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>-0.2638760345920331</v>
-      </c>
-      <c r="C42" t="n">
-        <v>1.401052768602805</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.7014215047961034</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.7420119520150851</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.001342040420597649</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.07925795639031642</v>
+        <v>0.09304532087389999</v>
       </c>
     </row>
   </sheetData>
@@ -3185,7 +3122,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3236,12 +3173,24 @@
           <t>Intercept</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>-11.45947853137056</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.643715589008907</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-0.2896928173593289</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9256895676005172</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0197203469498849</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.7010923187403794</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3249,12 +3198,24 @@
           <t>Trip_Time[T.Daytime Off-Peak]</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>-0.1322576615255283</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3335388671744921</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.3075208411661974</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.4948550278311937</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.002762075565133864</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.004580115336562728</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3262,12 +3223,24 @@
           <t>Trip_Time[T.Evening]</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>-1.160013020761322</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1.076056205655111</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-1.128712578120435</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0001245741077198567</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6.851902930776513e-10</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.171100731874537e-10</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3275,12 +3248,24 @@
           <t>Trip_Time[T.Lunch]</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>-0.1556568218392415</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.01843284306503275</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.6187560811186206</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.4494950290915477</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.8927693040056125</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3.946077504937905e-06</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3288,12 +3273,24 @@
           <t>Trip_Time[T.Nighttime Off-Peak]</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>0.1347835890817737</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.2334899467676212</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-1.22330968827011</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7648473655601861</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.5678254793322326</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.003028851661730164</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3301,12 +3298,24 @@
           <t>Trip_Time[T.PM Rush]</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>-0.2752626333216877</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2421089130985176</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.789804950655008</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1827208421921288</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.02821749890909818</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4.69245358481904e-09</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3314,12 +3323,24 @@
           <t>Season[T.Spring]</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>0.1279794884991955</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.08491464324505425</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.1081008506570941</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.4412555554217804</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.4330189326031717</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.2881820774154322</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3327,12 +3348,24 @@
           <t>Season[T.Winter]</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>-0.2902861050139702</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.07669053509161497</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.01390376008471064</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.06798622329080435</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.4268002131406615</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.8786839899737038</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3340,12 +3373,24 @@
           <t>Trip_Purpose_Agg[T.Home↔Leisure]</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>1.498302884406189</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.352603113912684</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.457017727488067</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.28237456553483e-09</v>
+      </c>
+      <c r="F10" t="n">
+        <v>6.105582130172909e-74</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4.038835988294846e-19</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3353,12 +3398,24 @@
           <t>Trip_Purpose_Agg[T.Home↔School]</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>1.390434339966201</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.219922951059113</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.207114600436584</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2.709017863778948e-05</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.341966347949225e-29</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5.431893341821018e-27</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3366,12 +3423,24 @@
           <t>Trip_Purpose_Agg[T.Home↔Shopping]</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>1.087939522430019</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.228082234525612</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.167958474092008</v>
+      </c>
+      <c r="E12" t="n">
+        <v>7.043193432721194e-05</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.359283649930059e-19</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.014097399177166e-10</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3379,12 +3448,24 @@
           <t>Trip_Purpose_Agg[T.Home↔Work]</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>1.700212316420791</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8858630509240838</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.9848751902320695</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.836326004652844e-14</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.134741611993289e-08</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.776126681079261e-09</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3392,12 +3473,24 @@
           <t>Trip_Purpose_Agg[T.Other]</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>0.8401011780796339</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.917883620181797</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.577589020393525</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.02053247797694335</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4.422588739812025e-07</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3.678031066739455e-16</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3405,12 +3498,24 @@
           <t>Occupation[T.Employed_PartTime]</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>0.0903541409307111</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.1658875330119496</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.5988849915621702</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.6752701617700102</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.2429748063171393</v>
+      </c>
+      <c r="G15" t="n">
+        <v>9.521035471981093e-06</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3418,12 +3523,24 @@
           <t>Occupation[T.Home_Partner]</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>-0.2209437878313836</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8157778207004349</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.561448049155972</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.6481557844788317</v>
+      </c>
+      <c r="F16" t="n">
+        <v>9.090716605731798e-06</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.02605695559008959</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3431,12 +3548,24 @@
           <t>Occupation[T.Other]</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>-16.29392196128195</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.4082677656061922</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.5309853823402028</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9948652405507813</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.3269327752066374</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.1923912197870895</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3444,12 +3573,24 @@
           <t>Occupation[T.Retired]</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>-0.2179987661456136</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6523242168363504</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.8235983650628236</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.4779477013616166</v>
+      </c>
+      <c r="F18" t="n">
+        <v>7.500919568603681e-05</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4.194729004362647e-06</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3457,12 +3598,24 @@
           <t>Occupation[T.Student_3rdLevel]</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>0.9099816893768103</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.2687207035449741</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.6442167828680113</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.009372498812538699</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.2830335986402437</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.001803659729678723</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3470,12 +3623,24 @@
           <t>Occupation[T.Student_School]</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>1.636507605314609</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.1097032016872561</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.795810735210951</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.0001670198571029495</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.6966441349557229</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.376881438081561e-13</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3483,12 +3648,24 @@
           <t>Occupation[T.Trainee]</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+      <c r="B21" t="n">
+        <v>0.4217085077084068</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.3022206676514899</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.8457395848695588</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.4653023294467424</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.4688576844022027</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.001797772286773502</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3496,12 +3673,24 @@
           <t>Occupation[T.Unemployed]</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>-0.1856058970960058</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.5106083209990022</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.985427133133731</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.5779118689855094</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.001258082515031463</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.65958620315167e-09</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3509,12 +3698,24 @@
           <t>Education[T.Elementary]</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+      <c r="B23" t="n">
+        <v>9.540313313334044</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.2931303774223748</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.5334515486754793</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9381058082796107</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.5481836341365957</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.3762981000579446</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3522,12 +3723,24 @@
           <t>Education[T.No diploma yet]</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+      <c r="B24" t="n">
+        <v>7.700902477904878</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-2.221881102204469</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-2.323541669001116</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9500218202574937</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.23429341761991e-05</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0001685843708729828</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3535,12 +3748,24 @@
           <t>Education[T.Other]</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+      <c r="B25" t="n">
+        <v>10.57567898686334</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.040557893676882</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.155953746391466</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9314066674511687</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.09880796959143236</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.09542890125626077</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3548,220 +3773,399 @@
           <t>Education[T.Secondary]</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+      <c r="B26" t="n">
+        <v>10.21471220384745</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.3983222139586001</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.5212118413813057</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9337400273438791</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.3834718164780677</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.373193330782614</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+          <t>Education[T.University]</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>10.75017969958405</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.6852523168931677</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.422429648235137</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.9302752113054935</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.1342058028095774</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.4704972528150312</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+          <t>Sex</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.4733371893563587</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.05671904936146852</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.3890578750754051</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0001427719641144785</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.451845341815458</v>
+      </c>
+      <c r="G28" t="n">
+        <v>4.112368488650779e-08</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sex</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.003732084582271772</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.007064608512635935</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-0.009994211167135919</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.5704856111636001</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.08969517958156947</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.01028049337467644</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
+          <t>Trip_Distance</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.000325618548288152</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.001875976538875567</v>
+      </c>
+      <c r="D30" t="n">
+        <v>5.06142497843083e-05</v>
+      </c>
+      <c r="E30" t="n">
+        <v>4.643235191543357e-32</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2.073126150794764e-295</v>
+      </c>
+      <c r="G30" t="n">
+        <v>4.309273668025723e-17</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Trip_Distance</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+          <t>CarOwnershipHH</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-1.837791283669029</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-2.383768167155498</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-3.073393245981134</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.543310315931997e-15</v>
+      </c>
+      <c r="F31" t="n">
+        <v>9.356072138029287e-51</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.312704500859087e-106</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+          <t>HHSize</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.1350218523117051</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.03606596392401058</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-0.01264754011241676</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.005037771973913708</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.275384966222469</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.6752453575300618</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HHSize</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
+          <t>UrbPopDensity_origin</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>7.488848406231807e-05</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.0001313486646933199</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.000173501473524169</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.09084458736322132</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2.034792115330264e-06</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1.369568546745836e-11</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
+          <t>DistSubcenter_origin</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.03939228873148963</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-0.004812746223896134</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.008583734399606538</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.336908207403529</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.818222151439902</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.6811969391139947</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+          <t>DistCenter_origin</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.03202536536836176</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.02812152379805066</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-0.130453475037961</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.2541529914035736</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.04461909733443401</v>
+      </c>
+      <c r="G35" t="n">
+        <v>3.802507503289588e-17</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
+          <t>UrbBuildDensity_origin</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-5.032792728630121e-09</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-5.197348863786353e-08</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-3.677598801543563e-08</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.8952493489557221</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.03574670905692782</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.1015336100166295</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
+          <t>IntersecDensity_origin</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-0.002487253420215154</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.00814416355521308</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.001182982124252223</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.5797270282465464</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.002820861118137408</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.6409144492807626</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
+          <t>street_length_origin</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.001490327248252746</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.01055466308682479</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-0.0007868661821021243</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.7642319382732266</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.0003499345959653745</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.7396594781043576</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
+          <t>bike_lane_share_origin</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>2.486941825544857</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.712707910094668</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-1.909349171564716</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.003999585933143121</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.005431256985744793</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0009010742519226482</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
+          <t>LU_UrbFab_origin</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.4939475226889228</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-0.237200220220908</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-1.094824169320328</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.3085220762897267</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.3870661964837183</v>
+      </c>
+      <c r="G40" t="n">
+        <v>6.432327344194671e-05</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
           <t>LU_Comm_origin</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
+      <c r="B41" t="n">
+        <v>0.04981189810620805</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.321244478317227</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.6990496811545039</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.9492954024190311</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.002619774821428648</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.07936840245928041</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3774,7 +4178,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3826,22 +4230,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-7.043411203125469</v>
+        <v>-7.303486924469037</v>
       </c>
       <c r="C2" t="n">
-        <v>1.855384169482362</v>
+        <v>1.864213794238752</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.130259987686588</v>
+        <v>-0.100537239798915</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6145382206754479</v>
+        <v>0.6485713055129873</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01143272550981415</v>
+        <v>0.01112499479285225</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8595466365819975</v>
+        <v>0.8912215487937321</v>
       </c>
     </row>
     <row r="3">
@@ -3851,22 +4255,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1765748953247324</v>
+        <v>-0.1672020603441826</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2865474322326526</v>
+        <v>0.2818118335339597</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.3281782394800448</v>
+        <v>-0.3274481400470015</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3664087186305858</v>
+        <v>0.3921756736788943</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01065661497343097</v>
+        <v>0.01196978728700993</v>
       </c>
       <c r="G3" t="n">
-        <v>0.002363797538414471</v>
+        <v>0.002393417767093428</v>
       </c>
     </row>
     <row r="4">
@@ -3876,22 +4280,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.9849121972244739</v>
+        <v>-0.9802980791282485</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.05293852509164</v>
+        <v>-1.059306496789793</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.107384080075814</v>
+        <v>-1.104295116180141</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0006380777421776874</v>
+        <v>0.0006796824511881564</v>
       </c>
       <c r="F4" t="n">
-        <v>1.964014231150155e-09</v>
+        <v>1.578837716476915e-09</v>
       </c>
       <c r="G4" t="n">
-        <v>2.384026758030918e-10</v>
+        <v>2.620132788653976e-10</v>
       </c>
     </row>
     <row r="5">
@@ -3901,22 +4305,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09305364257462428</v>
+        <v>-0.08967841345685314</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02753559129841277</v>
+        <v>0.02581162573625342</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6686038367214043</v>
+        <v>-0.6667340194500725</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6535695546079057</v>
+        <v>0.6653052217899398</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8421271434124099</v>
+        <v>0.851785464348442</v>
       </c>
       <c r="G5" t="n">
-        <v>1.167126963623428e-06</v>
+        <v>1.232867152370435e-06</v>
       </c>
     </row>
     <row r="6">
@@ -3926,22 +4330,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1754775809130486</v>
+        <v>0.1835991975185415</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1969691458579958</v>
+        <v>0.2023344299674024</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.8936462035561308</v>
+        <v>-0.8935713672944514</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7008728496308465</v>
+        <v>0.687093850507826</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6191418851219734</v>
+        <v>0.6103221719863023</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01589245937612621</v>
+        <v>0.01606565973875401</v>
       </c>
     </row>
     <row r="7">
@@ -3951,22 +4355,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.3237106439522428</v>
+        <v>-0.319375418653314</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2581420861151083</v>
+        <v>0.258990595465291</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.8245219567109545</v>
+        <v>-0.8210316122017866</v>
       </c>
       <c r="E7" t="n">
-        <v>0.126795193597781</v>
+        <v>0.1320903465510314</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02042570269366254</v>
+        <v>0.0199523307098094</v>
       </c>
       <c r="G7" t="n">
-        <v>8.075247401181163e-10</v>
+        <v>9.146572109116297e-10</v>
       </c>
     </row>
     <row r="8">
@@ -3976,22 +4380,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1165208054493382</v>
+        <v>0.1222087305781939</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0458725988419509</v>
+        <v>0.04260525123603946</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.1544386016884176</v>
+        <v>-0.1504258071428583</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4935458617949657</v>
+        <v>0.4725015361384152</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6749968454304971</v>
+        <v>0.6967870739145678</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1256474514847688</v>
+        <v>0.1354400974989171</v>
       </c>
     </row>
     <row r="9">
@@ -4001,22 +4405,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.2301908945395441</v>
+        <v>-0.2217084014822031</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.006054603747534517</v>
+        <v>-0.01185222053032201</v>
       </c>
       <c r="D9" t="n">
-        <v>0.003092897278780573</v>
+        <v>0.003964874669198815</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1548990783625203</v>
+        <v>0.1703914131043677</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9505625810715344</v>
+        <v>0.9032751999018148</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9726251061977591</v>
+        <v>0.9648874164366162</v>
       </c>
     </row>
     <row r="10">
@@ -4026,22 +4430,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.84641786181506</v>
+        <v>1.835256694387105</v>
       </c>
       <c r="C10" t="n">
-        <v>2.379891379018177</v>
+        <v>2.382733069514818</v>
       </c>
       <c r="D10" t="n">
-        <v>1.422341156000273</v>
+        <v>1.405375693351485</v>
       </c>
       <c r="E10" t="n">
-        <v>3.14289855202941e-12</v>
+        <v>4.322350382926832e-12</v>
       </c>
       <c r="F10" t="n">
-        <v>4.648963135866728e-74</v>
+        <v>2.548229897402951e-74</v>
       </c>
       <c r="G10" t="n">
-        <v>3.342184823891465e-19</v>
+        <v>6.943398725811697e-19</v>
       </c>
     </row>
     <row r="11">
@@ -4051,22 +4455,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.710254665522203</v>
+        <v>1.698212068093411</v>
       </c>
       <c r="C11" t="n">
-        <v>2.302785237472431</v>
+        <v>2.307113177521475</v>
       </c>
       <c r="D11" t="n">
-        <v>2.177562867317476</v>
+        <v>2.160616190353676</v>
       </c>
       <c r="E11" t="n">
-        <v>1.635888424899932e-06</v>
+        <v>1.887385489734859e-06</v>
       </c>
       <c r="F11" t="n">
-        <v>5.911454079419808e-31</v>
+        <v>4.360373277083823e-31</v>
       </c>
       <c r="G11" t="n">
-        <v>5.14164707268698e-27</v>
+        <v>1.026209202460042e-26</v>
       </c>
     </row>
     <row r="12">
@@ -4076,22 +4480,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.410682308419296</v>
+        <v>1.399891606181856</v>
       </c>
       <c r="C12" t="n">
-        <v>1.230977548804573</v>
+        <v>1.23496179822204</v>
       </c>
       <c r="D12" t="n">
-        <v>1.088309029564549</v>
+        <v>1.075250034761741</v>
       </c>
       <c r="E12" t="n">
-        <v>9.789371016418149e-07</v>
+        <v>1.186376227493697e-06</v>
       </c>
       <c r="F12" t="n">
-        <v>8.459635110157836e-20</v>
+        <v>5.934727442001486e-20</v>
       </c>
       <c r="G12" t="n">
-        <v>7.165347790864076e-10</v>
+        <v>1.045949941035346e-09</v>
       </c>
     </row>
     <row r="13">
@@ -4101,22 +4505,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.859553494095771</v>
+        <v>1.849952448371391</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8400942624237923</v>
+        <v>0.8444097458703816</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9039953912717971</v>
+        <v>0.891780520582148</v>
       </c>
       <c r="E13" t="n">
-        <v>1.667383087630977e-14</v>
+        <v>2.257181483199965e-14</v>
       </c>
       <c r="F13" t="n">
-        <v>8.511457243831507e-08</v>
+        <v>7.188024776402972e-08</v>
       </c>
       <c r="G13" t="n">
-        <v>1.046516885766313e-08</v>
+        <v>1.532747956156059e-08</v>
       </c>
     </row>
     <row r="14">
@@ -4126,22 +4530,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.317381736525264</v>
+        <v>1.303996587086377</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8952049148682065</v>
+        <v>0.8956154254488196</v>
       </c>
       <c r="D14" t="n">
-        <v>1.503152377286915</v>
+        <v>1.490991710532983</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0001849407964995406</v>
+        <v>0.0002148915527667549</v>
       </c>
       <c r="F14" t="n">
-        <v>9.673469528951659e-07</v>
+        <v>9.310821731728121e-07</v>
       </c>
       <c r="G14" t="n">
-        <v>1.673014214064829e-15</v>
+        <v>2.49583304596962e-15</v>
       </c>
     </row>
     <row r="15">
@@ -4151,22 +4555,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.1014176398761476</v>
+        <v>-0.1153936301371014</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.1682616890354145</v>
+        <v>-0.1556993775655962</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6605149796839977</v>
+        <v>0.6579999784227378</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6656116365403399</v>
+        <v>0.6226770301723072</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2386643182153846</v>
+        <v>0.2741000552476958</v>
       </c>
       <c r="G15" t="n">
-        <v>3.271325051891003e-07</v>
+        <v>3.579252479958032e-07</v>
       </c>
     </row>
     <row r="16">
@@ -4176,22 +4580,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.7012317829206143</v>
+        <v>-0.7096660453169437</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7973555069616318</v>
+        <v>0.8023179849515919</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5579785087941285</v>
+        <v>0.5575098770631873</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2490936977265737</v>
+        <v>0.2434040590125539</v>
       </c>
       <c r="F16" t="n">
-        <v>1.358982363741687e-05</v>
+        <v>1.195931124327218e-05</v>
       </c>
       <c r="G16" t="n">
-        <v>0.02625616807501718</v>
+        <v>0.02633887810673136</v>
       </c>
     </row>
     <row r="17">
@@ -4201,22 +4605,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-16.84217692071508</v>
+        <v>-15.85689565249927</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.3608716897403316</v>
+        <v>-0.3231463066231893</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7875770311498362</v>
+        <v>0.7650839597769362</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9958977587811793</v>
+        <v>0.9935203019071674</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3929807784702024</v>
+        <v>0.4424052227951375</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04587887550291958</v>
+        <v>0.05264498179221897</v>
       </c>
     </row>
     <row r="18">
@@ -4226,22 +4630,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.2679615020551726</v>
+        <v>-0.2767189892238724</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5942658134173402</v>
+        <v>0.5976104923662048</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7388464525081336</v>
+        <v>0.7414230190836452</v>
       </c>
       <c r="E18" t="n">
-        <v>0.368196326895783</v>
+        <v>0.3523826512137461</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0003859772152014419</v>
+        <v>0.0003559377320877022</v>
       </c>
       <c r="G18" t="n">
-        <v>2.786014751078259e-05</v>
+        <v>2.540114337580337e-05</v>
       </c>
     </row>
     <row r="19">
@@ -4251,22 +4655,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.5446735846158268</v>
+        <v>0.7213037967148472</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.4438262309796434</v>
+        <v>-0.4759323237879039</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4344404986346666</v>
+        <v>0.5301744144857505</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1295567340718858</v>
+        <v>0.03936564607764182</v>
       </c>
       <c r="F19" t="n">
-        <v>0.08285113990298323</v>
+        <v>0.05827351973507613</v>
       </c>
       <c r="G19" t="n">
-        <v>0.03945722727160533</v>
+        <v>0.01016627100096979</v>
       </c>
     </row>
     <row r="20">
@@ -4276,22 +4680,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.715071631990024</v>
+        <v>1.570698200984347</v>
       </c>
       <c r="C20" t="n">
-        <v>0.06089606701999962</v>
+        <v>0.09567749917877857</v>
       </c>
       <c r="D20" t="n">
-        <v>1.735403589159346</v>
+        <v>1.667707308030703</v>
       </c>
       <c r="E20" t="n">
-        <v>0.000120423668646256</v>
+        <v>0.0002984221131714553</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8306815533408548</v>
+        <v>0.7354162288220301</v>
       </c>
       <c r="G20" t="n">
-        <v>1.019523753193114e-12</v>
+        <v>4.298747388279071e-12</v>
       </c>
     </row>
     <row r="21">
@@ -4301,22 +4705,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.1287629482112597</v>
+        <v>-0.3019391594228338</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.0832499395722681</v>
+        <v>-0.02751012331820683</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9243088773557397</v>
+        <v>0.8284623550328261</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8675522609309798</v>
+        <v>0.6930568241920241</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8476636830433902</v>
+        <v>0.9490171499779804</v>
       </c>
       <c r="G21" t="n">
-        <v>0.001068248514963569</v>
+        <v>0.002905440422670545</v>
       </c>
     </row>
     <row r="22">
@@ -4326,22 +4730,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.135420907445971</v>
+        <v>-0.1537696727084897</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4403895467646395</v>
+        <v>0.4515584850599083</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9602196358945342</v>
+        <v>0.947607590775934</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6774863153040813</v>
+        <v>0.6367667854776673</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0059497667363353</v>
+        <v>0.00474271584049817</v>
       </c>
       <c r="G22" t="n">
-        <v>4.100139486732096e-09</v>
+        <v>6.131573668962617e-09</v>
       </c>
     </row>
     <row r="23">
@@ -4351,22 +4755,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4.695317765979316</v>
+        <v>5.092867451504699</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.3264417450502631</v>
+        <v>-0.3363136635152115</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2006815658992233</v>
+        <v>0.2479429341376414</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7366636446330047</v>
+        <v>0.75032616147237</v>
       </c>
       <c r="F23" t="n">
-        <v>0.528671665997308</v>
+        <v>0.516199296197499</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7347490797415677</v>
+        <v>0.6747037471737318</v>
       </c>
     </row>
     <row r="24">
@@ -4376,22 +4780,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.861261257933863</v>
+        <v>3.266202642499071</v>
       </c>
       <c r="C24" t="n">
-        <v>-2.106785700086768</v>
+        <v>-2.117726389605634</v>
       </c>
       <c r="D24" t="n">
-        <v>-2.571634094264097</v>
+        <v>-2.51847075567375</v>
       </c>
       <c r="E24" t="n">
-        <v>0.837648586772357</v>
+        <v>0.838304799913519</v>
       </c>
       <c r="F24" t="n">
-        <v>8.815338398070211e-05</v>
+        <v>8.060709363875347e-05</v>
       </c>
       <c r="G24" t="n">
-        <v>2.302236970744957e-05</v>
+        <v>3.22894046969651e-05</v>
       </c>
     </row>
     <row r="25">
@@ -4401,22 +4805,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5.731493458128154</v>
+        <v>6.018229703852063</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9839794443734379</v>
+        <v>0.9793564664032898</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8300982645732947</v>
+        <v>0.8362362053426476</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6821928296779383</v>
+        <v>0.70742690734346</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1338556142967046</v>
+        <v>0.1355981925233449</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2269412590694284</v>
+        <v>0.2227761704906486</v>
       </c>
     </row>
     <row r="26">
@@ -4426,422 +4830,397 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>5.410323644812036</v>
+        <v>5.846027519202556</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.2372559892615848</v>
+        <v>-0.2759647976432112</v>
       </c>
       <c r="D26" t="n">
-        <v>0.189577034818312</v>
+        <v>0.2694007076689976</v>
       </c>
       <c r="E26" t="n">
-        <v>0.698315941067696</v>
+        <v>0.7148514832112047</v>
       </c>
       <c r="F26" t="n">
-        <v>0.6280098878917171</v>
+        <v>0.5719775571439353</v>
       </c>
       <c r="G26" t="n">
-        <v>0.7420209137968257</v>
+        <v>0.638548510188321</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5.85313656904202</v>
+        <v>6.386374095802455</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.3873879783637895</v>
+        <v>-0.5880318407305114</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4396651229679538</v>
+        <v>0.1592317529403427</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6749927612668505</v>
+        <v>0.6898026815044538</v>
       </c>
       <c r="F27" t="n">
-        <v>0.4364460543031121</v>
+        <v>0.2294476329204124</v>
       </c>
       <c r="G27" t="n">
-        <v>0.4485334640876332</v>
+        <v>0.781524034472334</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>6.119195831534728</v>
+        <v>-0.5377405683117391</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.5980529576080447</v>
+        <v>0.02784542831554382</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1709360219730495</v>
+        <v>0.4329890126204999</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6610982314634439</v>
+        <v>2.30874414703563e-05</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2216175343337482</v>
+        <v>0.7144705582083484</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7663018375179383</v>
+        <v>7.837360142268781e-10</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.5424722789194582</v>
+        <v>-0.0006924793326934321</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0262265338340009</v>
+        <v>-0.004246973812592239</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4286387327655655</v>
+        <v>-0.01047024260346004</v>
       </c>
       <c r="E29" t="n">
-        <v>1.980306193499794e-05</v>
+        <v>0.9148523263207291</v>
       </c>
       <c r="F29" t="n">
-        <v>0.73043929142389</v>
+        <v>0.3119301267781102</v>
       </c>
       <c r="G29" t="n">
-        <v>1.193448616417809e-09</v>
+        <v>0.006258405416682433</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Trip_Distance</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.0002822878011865281</v>
+        <v>-0.000308287729557687</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.004640886141222092</v>
+        <v>-0.001913715805504667</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.01005815887210934</v>
+        <v>5.08892667840838e-05</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9652713197285167</v>
+        <v>2.966913779402661e-30</v>
       </c>
       <c r="F30" t="n">
-        <v>0.2701963208793702</v>
+        <v>1.252468311228957e-297</v>
       </c>
       <c r="G30" t="n">
-        <v>0.008801669449282937</v>
+        <v>3.968837698116432e-18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Trip_Distance</t>
+          <t>CarOwnershipHH</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.0003079116849907093</v>
+        <v>-2.05300108272355</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.001912251897804715</v>
+        <v>-2.576330685200925</v>
       </c>
       <c r="D31" t="n">
-        <v>5.055412448233572e-05</v>
+        <v>-3.068012813756048</v>
       </c>
       <c r="E31" t="n">
-        <v>3.230952234591206e-30</v>
+        <v>8.50297305503335e-20</v>
       </c>
       <c r="F31" t="n">
-        <v>4.337806555173996e-297</v>
+        <v>1.288853930987083e-58</v>
       </c>
       <c r="G31" t="n">
-        <v>6.632205743978366e-18</v>
+        <v>1.363288361550633e-105</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-2.08002307819085</v>
+        <v>0.1272754456547728</v>
       </c>
       <c r="C32" t="n">
-        <v>-2.568095978728286</v>
+        <v>0.06912710246409712</v>
       </c>
       <c r="D32" t="n">
-        <v>-3.086545368553008</v>
+        <v>-0.02228593258291297</v>
       </c>
       <c r="E32" t="n">
-        <v>3.093826283271491e-20</v>
+        <v>0.009420669534071835</v>
       </c>
       <c r="F32" t="n">
-        <v>4.311164311778132e-58</v>
+        <v>0.03567455559562388</v>
       </c>
       <c r="G32" t="n">
-        <v>2.910073759989248e-106</v>
+        <v>0.4563164379768839</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>UrbPopDensity_origin</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1302698613665166</v>
+        <v>5.974911087012853e-05</v>
       </c>
       <c r="C33" t="n">
-        <v>0.06842416045409827</v>
+        <v>0.0001158181202276343</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.02012450049914733</v>
+        <v>0.0001684814779496942</v>
       </c>
       <c r="E33" t="n">
-        <v>0.008069634457585739</v>
+        <v>0.1859700608777735</v>
       </c>
       <c r="F33" t="n">
-        <v>0.03760163372619119</v>
+        <v>1.816360339456616e-05</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5018682638796607</v>
+        <v>3.471739635802672e-11</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
+          <t>DistSubcenter_origin</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6.045720979563574e-05</v>
+        <v>-0.03740784835362471</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0001154455733222345</v>
+        <v>-0.01416342592333603</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0001691086841769886</v>
+        <v>0.01174564789930831</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1825256238183203</v>
+        <v>0.3600287512646203</v>
       </c>
       <c r="F34" t="n">
-        <v>1.917262473109316e-05</v>
+        <v>0.4928202260622688</v>
       </c>
       <c r="G34" t="n">
-        <v>3.142083090851443e-11</v>
+        <v>0.5666764325570459</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
+          <t>DistCenter_origin</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.03766283340535924</v>
+        <v>-0.02784405292812142</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.01429414691691143</v>
+        <v>-0.0272720626903001</v>
       </c>
       <c r="D35" t="n">
-        <v>0.01130705000998346</v>
+        <v>-0.1260159651932867</v>
       </c>
       <c r="E35" t="n">
-        <v>0.3575702694009789</v>
+        <v>0.318485574281867</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4888334507145407</v>
+        <v>0.04940203901969478</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5816529800727042</v>
+        <v>1.223612704424456e-16</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
+          <t>UrbBuildDensity_origin</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.02568568280378893</v>
+        <v>-2.022538519626403e-08</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.02737468128500521</v>
+        <v>-2.652260282936454e-08</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.1247466998500453</v>
+        <v>-5.397481050033486e-08</v>
       </c>
       <c r="E36" t="n">
-        <v>0.3583136433014248</v>
+        <v>0.6151796291488829</v>
       </c>
       <c r="F36" t="n">
-        <v>0.04849305929860565</v>
+        <v>0.2402791102437913</v>
       </c>
       <c r="G36" t="n">
-        <v>2.664198930509739e-16</v>
+        <v>0.01536721168926446</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
+          <t>IntersecDensity_origin</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-2.385954333399872e-08</v>
+        <v>0.0009155470009641432</v>
       </c>
       <c r="C37" t="n">
-        <v>-2.470902018862048e-08</v>
+        <v>0.005526868396570603</v>
       </c>
       <c r="D37" t="n">
-        <v>-5.599633995337496e-08</v>
+        <v>0.001455314270302964</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5566363837430268</v>
+        <v>0.837470297631983</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2739028479236371</v>
+        <v>0.04192822956293205</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0122122237350314</v>
+        <v>0.5623370891541046</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
+          <t>street_length_origin</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.0009340390132998494</v>
+        <v>0.002041036659637249</v>
       </c>
       <c r="C38" t="n">
-        <v>0.005650760339388837</v>
+        <v>0.009604087571399578</v>
       </c>
       <c r="D38" t="n">
-        <v>0.001486490341861925</v>
+        <v>0.0001294511137621605</v>
       </c>
       <c r="E38" t="n">
-        <v>0.8343169390738809</v>
+        <v>0.671884827155612</v>
       </c>
       <c r="F38" t="n">
-        <v>0.03751629427420516</v>
+        <v>0.001247770109536648</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5543231935700854</v>
+        <v>0.9531878110140982</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
+          <t>bike_lane_share_origin</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.002075310475272079</v>
+        <v>2.512884546641871</v>
       </c>
       <c r="C39" t="n">
-        <v>0.009823010268969644</v>
+        <v>1.827436154639414</v>
       </c>
       <c r="D39" t="n">
-        <v>0.000186431946594195</v>
+        <v>-1.298062215233404</v>
       </c>
       <c r="E39" t="n">
-        <v>0.6668715007763496</v>
+        <v>0.003859192481980538</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0009245825877707214</v>
+        <v>0.002764698056069217</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9326616556544659</v>
+        <v>0.02150001092978549</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
+          <t>LU_UrbFab_origin</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2.586347940335036</v>
+        <v>0.4033106216982367</v>
       </c>
       <c r="C40" t="n">
-        <v>1.808673009147812</v>
+        <v>-0.02976058119271512</v>
       </c>
       <c r="D40" t="n">
-        <v>-1.280362459177717</v>
+        <v>-0.9659119285585743</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003065105087677239</v>
+        <v>0.4138254622412687</v>
       </c>
       <c r="F40" t="n">
-        <v>0.003068551381032258</v>
+        <v>0.9128056800210502</v>
       </c>
       <c r="G40" t="n">
-        <v>0.02354377303544985</v>
+        <v>0.0003809176745377423</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
+          <t>LU_Comm_origin</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.3893159343732536</v>
+        <v>0.1798901724048877</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.02105014963504634</v>
+        <v>1.011043055203452</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.970288340033732</v>
+        <v>0.8107109094966451</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4301886675173657</v>
+        <v>0.8207164874248825</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9382978333623508</v>
+        <v>0.02177067275950798</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0003605155775342714</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>LU_Comm_origin</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>0.1985096555293953</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.9991413155210274</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.8318593523263242</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.8032170177187058</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.02339188706164002</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.03618631382537323</v>
+        <v>0.04091566058887926</v>
       </c>
     </row>
   </sheetData>
@@ -4855,7 +5234,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4907,22 +5286,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-21.29996007708809</v>
+        <v>-25.77056448835711</v>
       </c>
       <c r="C2" t="n">
-        <v>2.661001399984425</v>
+        <v>2.681471678821145</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.2002309501724981</v>
+        <v>-0.1890733239897935</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9993401214766118</v>
+        <v>0.9999148413334417</v>
       </c>
       <c r="F2" t="n">
-        <v>0.000394076009603995</v>
+        <v>0.0003564018040502476</v>
       </c>
       <c r="G2" t="n">
-        <v>0.783932172741169</v>
+        <v>0.7955099165304177</v>
       </c>
     </row>
     <row r="3">
@@ -4932,22 +5311,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1098976016213448</v>
+        <v>-0.09902625234964658</v>
       </c>
       <c r="C3" t="n">
-        <v>0.322217719295497</v>
+        <v>0.3185349452396191</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2918014504168128</v>
+        <v>-0.2887130411514097</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5713600361125404</v>
+        <v>0.6097156510944572</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003937094730799159</v>
+        <v>0.004358537717652326</v>
       </c>
       <c r="G3" t="n">
-        <v>0.007071053576902303</v>
+        <v>0.00764620924524354</v>
       </c>
     </row>
     <row r="4">
@@ -4957,22 +5336,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.072299839329209</v>
+        <v>-1.064458015504727</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.037006544973487</v>
+        <v>-1.044381162282531</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.232375553028037</v>
+        <v>-1.228193390505093</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0003348583652127888</v>
+        <v>0.0003664637719954908</v>
       </c>
       <c r="F4" t="n">
-        <v>2.2730855453694e-09</v>
+        <v>1.790407097250281e-09</v>
       </c>
       <c r="G4" t="n">
-        <v>6.375454015938545e-12</v>
+        <v>7.185803347861778e-12</v>
       </c>
     </row>
     <row r="5">
@@ -4982,22 +5361,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07605187857503572</v>
+        <v>-0.0744075934210623</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06264758686675245</v>
+        <v>0.06418206749647397</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6313040313460795</v>
+        <v>-0.6305322374616893</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7100813477719048</v>
+        <v>0.7161349897275083</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6474026774338626</v>
+        <v>0.6391595277936533</v>
       </c>
       <c r="G5" t="n">
-        <v>3.117705146285198e-06</v>
+        <v>3.218098850447825e-06</v>
       </c>
     </row>
     <row r="6">
@@ -5007,22 +5386,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2195949183533317</v>
+        <v>-0.2091217555168715</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3029829266825996</v>
+        <v>0.3164260697147391</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.9295417594781802</v>
+        <v>-0.9212238447054373</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6686359636776753</v>
+        <v>0.6831107828638878</v>
       </c>
       <c r="F6" t="n">
-        <v>0.46305856929501</v>
+        <v>0.4438125292781749</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01140991143017561</v>
+        <v>0.01229867277841088</v>
       </c>
     </row>
     <row r="7">
@@ -5032,22 +5411,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.2927244522167353</v>
+        <v>-0.2857395174443836</v>
       </c>
       <c r="C7" t="n">
-        <v>0.167658949791871</v>
+        <v>0.1678815674691986</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.8512389865482489</v>
+        <v>-0.8464759941812406</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1584294087999301</v>
+        <v>0.1684780826963483</v>
       </c>
       <c r="F7" t="n">
-        <v>0.130594752330895</v>
+        <v>0.1298777747622909</v>
       </c>
       <c r="G7" t="n">
-        <v>2.9288315496909e-10</v>
+        <v>3.494341481772591e-10</v>
       </c>
     </row>
     <row r="8">
@@ -5057,22 +5436,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1508868266828631</v>
+        <v>0.1556278236860158</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04913307508924711</v>
+        <v>0.04637686720401092</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2271236208107945</v>
+        <v>-0.2223357597787811</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3679500897469619</v>
+        <v>0.3530162803788072</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6509501645985387</v>
+        <v>0.6691945753336532</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02254920807129154</v>
+        <v>0.02540296107445625</v>
       </c>
     </row>
     <row r="9">
@@ -5082,22 +5461,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.3249191848172581</v>
+        <v>-0.3174709164747221</v>
       </c>
       <c r="C9" t="n">
-        <v>0.009707570971732525</v>
+        <v>0.004388467140432061</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.0938305489344278</v>
+        <v>-0.09237135595064995</v>
       </c>
       <c r="E9" t="n">
-        <v>0.04472258468742547</v>
+        <v>0.04975326200913689</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9202899392076829</v>
+        <v>0.9638689443482954</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2900993809269576</v>
+        <v>0.2973674877861274</v>
       </c>
     </row>
     <row r="10">
@@ -5107,22 +5486,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.473242988509693</v>
+        <v>1.463510648510467</v>
       </c>
       <c r="C10" t="n">
-        <v>2.328395318471193</v>
+        <v>2.328884872499687</v>
       </c>
       <c r="D10" t="n">
-        <v>1.662629565689732</v>
+        <v>1.651162357624909</v>
       </c>
       <c r="E10" t="n">
-        <v>3.244390912928123e-09</v>
+        <v>4.090546896374442e-09</v>
       </c>
       <c r="F10" t="n">
-        <v>1.512962979230902e-71</v>
+        <v>1.203107116608833e-71</v>
       </c>
       <c r="G10" t="n">
-        <v>1.436248659508179e-23</v>
+        <v>2.300576465421451e-23</v>
       </c>
     </row>
     <row r="11">
@@ -5132,22 +5511,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.319633481429946</v>
+        <v>1.305748893246649</v>
       </c>
       <c r="C11" t="n">
-        <v>2.164387411582652</v>
+        <v>2.170770101357004</v>
       </c>
       <c r="D11" t="n">
-        <v>2.308967120315465</v>
+        <v>2.296784564412186</v>
       </c>
       <c r="E11" t="n">
-        <v>8.855541087930144e-05</v>
+        <v>0.0001025797056297049</v>
       </c>
       <c r="F11" t="n">
-        <v>2.476179213749607e-28</v>
+        <v>1.65263813666915e-28</v>
       </c>
       <c r="G11" t="n">
-        <v>4.230072234098248e-29</v>
+        <v>6.768356204285592e-29</v>
       </c>
     </row>
     <row r="12">
@@ -5157,22 +5536,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.036158727702718</v>
+        <v>1.026781627536123</v>
       </c>
       <c r="C12" t="n">
-        <v>1.222311189245141</v>
+        <v>1.22558593053761</v>
       </c>
       <c r="D12" t="n">
-        <v>1.302862826457899</v>
+        <v>1.297231953512181</v>
       </c>
       <c r="E12" t="n">
-        <v>0.000179491508806906</v>
+        <v>0.0002047614855705028</v>
       </c>
       <c r="F12" t="n">
-        <v>1.947254395348092e-19</v>
+        <v>1.493127103803456e-19</v>
       </c>
       <c r="G12" t="n">
-        <v>9.285118112716896e-13</v>
+        <v>1.066471021355663e-12</v>
       </c>
     </row>
     <row r="13">
@@ -5182,22 +5561,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.645804947107488</v>
+        <v>1.640949708870786</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8258459023553855</v>
+        <v>0.8267293523598818</v>
       </c>
       <c r="D13" t="n">
-        <v>1.14264251673147</v>
+        <v>1.13740031855978</v>
       </c>
       <c r="E13" t="n">
-        <v>1.489058061517792e-13</v>
+        <v>1.788805526950387e-13</v>
       </c>
       <c r="F13" t="n">
-        <v>9.743823102844611e-08</v>
+        <v>9.533378735022227e-08</v>
       </c>
       <c r="G13" t="n">
-        <v>4.655177428540235e-12</v>
+        <v>5.587862779801525e-12</v>
       </c>
     </row>
     <row r="14">
@@ -5207,22 +5586,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.059394454529649</v>
+        <v>1.051066736356078</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9237040989235855</v>
+        <v>0.9196005757647591</v>
       </c>
       <c r="D14" t="n">
-        <v>1.672150564949034</v>
+        <v>1.666539768831967</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001737215107497707</v>
+        <v>0.001885255755043821</v>
       </c>
       <c r="F14" t="n">
-        <v>3.249895527479447e-07</v>
+        <v>3.537472989843817e-07</v>
       </c>
       <c r="G14" t="n">
-        <v>1.366599941548063e-17</v>
+        <v>1.588285358796815e-17</v>
       </c>
     </row>
     <row r="15">
@@ -5232,22 +5611,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1610291137051415</v>
+        <v>0.1506503297368633</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.1123202269916652</v>
+        <v>-0.1000767491343181</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6776538485226415</v>
+        <v>0.6760932936842046</v>
       </c>
       <c r="E15" t="n">
-        <v>0.461775514591776</v>
+        <v>0.4908035166188072</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4310647335460899</v>
+        <v>0.4819590980913255</v>
       </c>
       <c r="G15" t="n">
-        <v>3.346690734213025e-07</v>
+        <v>3.539396525055452e-07</v>
       </c>
     </row>
     <row r="16">
@@ -5257,22 +5636,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.18203634541489</v>
+        <v>-0.1919219314539197</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8467029687495067</v>
+        <v>0.8488490391645157</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6189757764622024</v>
+        <v>0.6158115583453361</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7066435709333245</v>
+        <v>0.6915044042286347</v>
       </c>
       <c r="F16" t="n">
-        <v>2.592218927844054e-06</v>
+        <v>2.449352929926473e-06</v>
       </c>
       <c r="G16" t="n">
-        <v>0.01265352179872449</v>
+        <v>0.01313792546677787</v>
       </c>
     </row>
     <row r="17">
@@ -5282,22 +5661,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-20.2238104165014</v>
+        <v>-20.3277793375926</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.3967510938007893</v>
+        <v>-0.3607367920535393</v>
       </c>
       <c r="D17" t="n">
-        <v>0.702316786878831</v>
+        <v>0.6846799165308793</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9991566422688621</v>
+        <v>0.9991744005092351</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3463891640814668</v>
+        <v>0.3889249295209779</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0812840376065862</v>
+        <v>0.0898167749549401</v>
       </c>
     </row>
     <row r="18">
@@ -5307,22 +5686,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.2420624363681801</v>
+        <v>-0.248948721525336</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5236371618269891</v>
+        <v>0.5310912306402252</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6641100176439939</v>
+        <v>0.6661731076992293</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4218176057214261</v>
+        <v>0.4081467443395561</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001631691762324604</v>
+        <v>0.001388927167779745</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0001619525548667148</v>
+        <v>0.0001516896820404681</v>
       </c>
     </row>
     <row r="19">
@@ -5332,22 +5711,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8881201756235363</v>
+        <v>1.051735823656085</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.280108347192424</v>
+        <v>-0.3332071204962612</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6768466789923948</v>
+        <v>0.7605239854252147</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01258723257500774</v>
+        <v>0.002305841644677909</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2695436185807667</v>
+        <v>0.1806654473736002</v>
       </c>
       <c r="G19" t="n">
-        <v>0.001226203662721888</v>
+        <v>0.0001950864218190779</v>
       </c>
     </row>
     <row r="20">
@@ -5357,22 +5736,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.458956280211144</v>
+        <v>1.340711653195477</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01549208501842015</v>
+        <v>0.04921865734495872</v>
       </c>
       <c r="D20" t="n">
-        <v>1.905203969481688</v>
+        <v>1.852698053370656</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002334731058479601</v>
+        <v>0.004190617130463606</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9569837057973408</v>
+        <v>0.8633030828873219</v>
       </c>
       <c r="G20" t="n">
-        <v>3.726745434734083e-15</v>
+        <v>1.102531682300332e-14</v>
       </c>
     </row>
     <row r="21">
@@ -5382,22 +5761,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.01595945465719623</v>
+        <v>-0.1702580676059654</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3235381571461239</v>
+        <v>0.3872488087779457</v>
       </c>
       <c r="D21" t="n">
-        <v>1.068907129889158</v>
+        <v>0.993066128440136</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9835168834008059</v>
+        <v>0.8239889411705938</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4685323219264711</v>
+        <v>0.3826983801669174</v>
       </c>
       <c r="G21" t="n">
-        <v>9.434384225473766e-05</v>
+        <v>0.000229895819387253</v>
       </c>
     </row>
     <row r="22">
@@ -5407,22 +5786,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.2478026480981029</v>
+        <v>-0.2617900471341705</v>
       </c>
       <c r="C22" t="n">
-        <v>0.284807314498654</v>
+        <v>0.2928852284973158</v>
       </c>
       <c r="D22" t="n">
-        <v>1.122749010518072</v>
+        <v>1.11491575435627</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4723733891302722</v>
+        <v>0.4476248979059868</v>
       </c>
       <c r="F22" t="n">
-        <v>0.07836888127928417</v>
+        <v>0.07006184991108454</v>
       </c>
       <c r="G22" t="n">
-        <v>6.856248876834228e-12</v>
+        <v>8.873940872946694e-12</v>
       </c>
     </row>
     <row r="23">
@@ -5432,22 +5811,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>20.00372665802018</v>
+        <v>24.58916213339185</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.667943710803081</v>
+        <v>-0.6837188544238456</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2556510109223978</v>
+        <v>0.2973067392438602</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9993802791298244</v>
+        <v>0.9999187452700007</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2216956214785948</v>
+        <v>0.2106577098361343</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6604733312098106</v>
+        <v>0.60854494945212</v>
       </c>
     </row>
     <row r="24">
@@ -5457,22 +5836,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>18.46392426460466</v>
+        <v>23.05844708260036</v>
       </c>
       <c r="C24" t="n">
-        <v>-2.561386704382616</v>
+        <v>-2.580559146483231</v>
       </c>
       <c r="D24" t="n">
-        <v>-2.536749796818364</v>
+        <v>-2.488835178535333</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9994279826165517</v>
+        <v>0.999923803508142</v>
       </c>
       <c r="F24" t="n">
-        <v>5.619402537810116e-06</v>
+        <v>4.697186930897269e-06</v>
       </c>
       <c r="G24" t="n">
-        <v>2.219740875009805e-05</v>
+        <v>3.01266260314677e-05</v>
       </c>
     </row>
     <row r="25">
@@ -5482,22 +5861,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>20.98875132768655</v>
+        <v>25.47788887389015</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5721733323508954</v>
+        <v>0.5636275186066023</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9153927330024892</v>
+        <v>0.9232830919195562</v>
       </c>
       <c r="E25" t="n">
-        <v>0.999349762805807</v>
+        <v>0.9999158084781461</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3978306414052878</v>
+        <v>0.4046410671040815</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1800945049052483</v>
+        <v>0.1756966720832072</v>
       </c>
     </row>
     <row r="26">
@@ -5507,422 +5886,397 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>20.48752389617408</v>
+        <v>25.11288411267106</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.8042830796394735</v>
+        <v>-0.8558537775138296</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2438043937665058</v>
+        <v>0.3109028782689497</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9993652909633998</v>
+        <v>0.9999170146340546</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1205121497073596</v>
+        <v>0.09743017791340614</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6660016751313398</v>
+        <v>0.580415385978542</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>20.88118870438543</v>
+        <v>25.64284464048572</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.9881272835981857</v>
+        <v>-1.135406026644446</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4524006172646416</v>
+        <v>0.2889583543055993</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9993530951237216</v>
+        <v>0.9999152633828651</v>
       </c>
       <c r="F27" t="n">
-        <v>0.05981335375047905</v>
+        <v>0.02811057832093543</v>
       </c>
       <c r="G27" t="n">
-        <v>0.4265484513173725</v>
+        <v>0.607509988170881</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>21.1699980495824</v>
+        <v>-0.5278382433279066</v>
       </c>
       <c r="C28" t="n">
-        <v>-1.142910137148207</v>
+        <v>-0.02583053995246622</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2960879861457945</v>
+        <v>0.3707832361564814</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9993441477340455</v>
+        <v>2.764590073376802e-05</v>
       </c>
       <c r="F28" t="n">
-        <v>0.02715326885742272</v>
+        <v>0.7326634220109682</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5992319899945187</v>
+        <v>1.354576088540301e-07</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.5323393147612644</v>
+        <v>-0.001582294689405604</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.02755250932106833</v>
+        <v>-0.004127282627709492</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3680943161305869</v>
+        <v>-0.007082623957202151</v>
       </c>
       <c r="E29" t="n">
-        <v>2.405552661498263e-05</v>
+        <v>0.8096801687625184</v>
       </c>
       <c r="F29" t="n">
-        <v>0.7156432222751027</v>
+        <v>0.3300438216451764</v>
       </c>
       <c r="G29" t="n">
-        <v>1.701733838207445e-07</v>
+        <v>0.06470878939304821</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Trip_Distance</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.001320251013203885</v>
+        <v>-0.0003029258769424462</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.004422445112233267</v>
+        <v>-0.001900824164487343</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.006781268062610469</v>
+        <v>5.115096769187979e-05</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8409164837253305</v>
+        <v>2.466593911592592e-30</v>
       </c>
       <c r="F30" t="n">
-        <v>0.2971761742892848</v>
+        <v>4.898209486544073e-297</v>
       </c>
       <c r="G30" t="n">
-        <v>0.07755398421953526</v>
+        <v>4.940530488005446e-18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Trip_Distance</t>
+          <t>CarOwnershipHH</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.0003026903940306562</v>
+        <v>-1.793596291643198</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.001899534784918528</v>
+        <v>-2.40507319911561</v>
       </c>
       <c r="D31" t="n">
-        <v>5.086952770344967e-05</v>
+        <v>-3.099324641332162</v>
       </c>
       <c r="E31" t="n">
-        <v>2.617922519254854e-30</v>
+        <v>1.293695804339737e-14</v>
       </c>
       <c r="F31" t="n">
-        <v>2.119380627474637e-296</v>
+        <v>1.22003928324401e-51</v>
       </c>
       <c r="G31" t="n">
-        <v>7.588939709928607e-18</v>
+        <v>7.859701794785875e-108</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1.818128155372545</v>
+        <v>0.1345112167631868</v>
       </c>
       <c r="C32" t="n">
-        <v>-2.392520895811332</v>
+        <v>0.04475851017249773</v>
       </c>
       <c r="D32" t="n">
-        <v>-3.11648140444827</v>
+        <v>-0.003708445147569421</v>
       </c>
       <c r="E32" t="n">
-        <v>6.361318534256822e-15</v>
+        <v>0.006048953198702043</v>
       </c>
       <c r="F32" t="n">
-        <v>6.044493293610242e-51</v>
+        <v>0.1723454621909697</v>
       </c>
       <c r="G32" t="n">
-        <v>2.424624210792239e-108</v>
+        <v>0.9008228738994105</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>UrbPopDensity_origin</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1370004250505134</v>
+        <v>5.783230866173334e-05</v>
       </c>
       <c r="C33" t="n">
-        <v>0.04420542080029196</v>
+        <v>0.0001391011148630546</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.001879918735043431</v>
+        <v>0.0001769000903246498</v>
       </c>
       <c r="E33" t="n">
-        <v>0.005294942702393604</v>
+        <v>0.1952377722962084</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1775991773933528</v>
+        <v>2.727887461864682e-07</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9496937050517211</v>
+        <v>2.68255339013424e-12</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
+          <t>DistSubcenter_origin</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>5.82228724247629e-05</v>
+        <v>-0.06566918892068296</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0001386359695212087</v>
+        <v>-0.01553139300050232</v>
       </c>
       <c r="D34" t="n">
-        <v>0.000177275216978411</v>
+        <v>0.004156143923196331</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1935436823438463</v>
+        <v>0.1125987489549352</v>
       </c>
       <c r="F34" t="n">
-        <v>2.987994061921618e-07</v>
+        <v>0.4555868873151302</v>
       </c>
       <c r="G34" t="n">
-        <v>2.553954232101038e-12</v>
+        <v>0.8396630478122298</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
+          <t>DistCenter_origin</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.06662653647665016</v>
+        <v>-0.03280417224610845</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.01526694881379261</v>
+        <v>-0.02093853680967418</v>
       </c>
       <c r="D35" t="n">
-        <v>0.003846018303669617</v>
+        <v>-0.1313705551251602</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1081381970165722</v>
+        <v>0.2416389200503019</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4631982343811941</v>
+        <v>0.1342173695727759</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8516049685347504</v>
+        <v>8.572014958568488e-18</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
+          <t>UrbBuildDensity_origin</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.03117043438479869</v>
+        <v>-1.289350122430454e-08</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.02109596005307647</v>
+        <v>-4.715367719641736e-08</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.1307466684384554</v>
+        <v>-6.042321782369751e-08</v>
       </c>
       <c r="E36" t="n">
-        <v>0.2670441642292055</v>
+        <v>0.7370838491476321</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1312113431423379</v>
+        <v>0.03813439632929635</v>
       </c>
       <c r="G36" t="n">
-        <v>1.279062105036286e-17</v>
+        <v>0.006462285927047152</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
+          <t>IntersecDensity_origin</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-1.547943458107329e-08</v>
+        <v>-0.001431858897362372</v>
       </c>
       <c r="C37" t="n">
-        <v>-4.541586661822058e-08</v>
+        <v>0.004705235311997555</v>
       </c>
       <c r="D37" t="n">
-        <v>-6.190261771985515e-08</v>
+        <v>2.619053835736941e-05</v>
       </c>
       <c r="E37" t="n">
-        <v>0.6888143545614906</v>
+        <v>0.7488092590664328</v>
       </c>
       <c r="F37" t="n">
-        <v>0.04587844171412516</v>
+        <v>0.07878138123263349</v>
       </c>
       <c r="G37" t="n">
-        <v>0.005378222210847488</v>
+        <v>0.9916122620656665</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
+          <t>street_length_origin</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.001429911930983219</v>
+        <v>-0.002428234338844603</v>
       </c>
       <c r="C38" t="n">
-        <v>0.004761530920463686</v>
+        <v>0.007416027016898231</v>
       </c>
       <c r="D38" t="n">
-        <v>2.648317499900356e-05</v>
+        <v>-0.0007046776597371977</v>
       </c>
       <c r="E38" t="n">
-        <v>0.749173835059227</v>
+        <v>0.6545158584479871</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07533484823547651</v>
+        <v>0.01063799561719872</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9915220161179387</v>
+        <v>0.7530978262655976</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
+          <t>bike_lane_share_origin</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.002288053025690137</v>
+        <v>2.427988152534632</v>
       </c>
       <c r="C39" t="n">
-        <v>0.007604667604375071</v>
+        <v>1.757795295802339</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.0006551191487986181</v>
+        <v>-1.573039710406215</v>
       </c>
       <c r="E39" t="n">
-        <v>0.6722626786034114</v>
+        <v>0.005535115301003297</v>
       </c>
       <c r="F39" t="n">
-        <v>0.008675889017559215</v>
+        <v>0.00399533360121805</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7699778733632879</v>
+        <v>0.005607281278237477</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
+          <t>LU_UrbFab_origin</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2.480562595944062</v>
+        <v>0.2663842641816592</v>
       </c>
       <c r="C40" t="n">
-        <v>1.759357107144127</v>
+        <v>-0.2934670916012034</v>
       </c>
       <c r="D40" t="n">
-        <v>-1.564074793318145</v>
+        <v>-1.041532791109288</v>
       </c>
       <c r="E40" t="n">
-        <v>0.004730582229869767</v>
+        <v>0.5869694069982648</v>
       </c>
       <c r="F40" t="n">
-        <v>0.003984742935001136</v>
+        <v>0.2833392582932543</v>
       </c>
       <c r="G40" t="n">
-        <v>0.005954208428526931</v>
+        <v>0.000144114000195383</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
+          <t>LU_Comm_origin</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2591404162102529</v>
+        <v>-0.2891232866097264</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.2757009382042445</v>
+        <v>1.304037476152362</v>
       </c>
       <c r="D41" t="n">
-        <v>-1.044561905287087</v>
+        <v>1.032110599367804</v>
       </c>
       <c r="E41" t="n">
-        <v>0.5971010805151857</v>
+        <v>0.7122964998653457</v>
       </c>
       <c r="F41" t="n">
-        <v>0.3139669012446208</v>
+        <v>0.00284751352244635</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0001379623444436164</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>LU_Comm_origin</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>-0.2820817912113279</v>
-      </c>
-      <c r="C42" t="n">
-        <v>1.289858069039478</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1.052109925993048</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.7197934189324254</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.0031674081634579</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.007707894549793252</v>
+        <v>0.008898294886898627</v>
       </c>
     </row>
   </sheetData>
@@ -5936,7 +6290,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5988,22 +6342,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-22.15079789463669</v>
+        <v>-32.61816776291626</v>
       </c>
       <c r="C2" t="n">
-        <v>2.252736093584881</v>
+        <v>2.270697027664506</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.2279891080249362</v>
+        <v>-0.2118333635757663</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9994601450568552</v>
+        <v>0.9999945828780749</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001256147929036167</v>
+        <v>0.001152388970316172</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7546652550533938</v>
+        <v>0.77133263741659</v>
       </c>
     </row>
     <row r="3">
@@ -6013,22 +6367,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1798960236722759</v>
+        <v>-0.1662148251166453</v>
       </c>
       <c r="C3" t="n">
-        <v>0.306302865160786</v>
+        <v>0.3037238118454866</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.3680331283152619</v>
+        <v>-0.3645580144016985</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3656113920108649</v>
+        <v>0.4027845038683281</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005782722361371468</v>
+        <v>0.006185734801647857</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0007278903772685533</v>
+        <v>0.0008101568045802097</v>
       </c>
     </row>
     <row r="4">
@@ -6038,22 +6392,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.88871126249307</v>
+        <v>-0.8821385981474674</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.095498555993599</v>
+        <v>-1.100594628554586</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.101797707836224</v>
+        <v>-1.099068240962862</v>
       </c>
       <c r="E4" t="n">
-        <v>0.001779711399953119</v>
+        <v>0.001927627461751176</v>
       </c>
       <c r="F4" t="n">
-        <v>2.843636445903822e-10</v>
+        <v>2.34729509239094e-10</v>
       </c>
       <c r="G4" t="n">
-        <v>2.993210266944272e-10</v>
+        <v>3.234730708629261e-10</v>
       </c>
     </row>
     <row r="5">
@@ -6063,22 +6417,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.008108473864961854</v>
+        <v>-0.007177116051100805</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0445082300410205</v>
+        <v>0.04442333982972469</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.610102510529272</v>
+        <v>-0.6092880175307795</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9689241601994939</v>
+        <v>0.9724958995672933</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7449040007695651</v>
+        <v>0.7452945308551016</v>
       </c>
       <c r="G5" t="n">
-        <v>6.391166713572896e-06</v>
+        <v>6.532180296324068e-06</v>
       </c>
     </row>
     <row r="6">
@@ -6088,22 +6442,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3762026736010919</v>
+        <v>0.3746280766929251</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4208816945097385</v>
+        <v>0.4264515440579069</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.9561356387361366</v>
+        <v>-0.9535354708620691</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4078355081779594</v>
+        <v>0.4093346690194295</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2833403910307849</v>
+        <v>0.2774752075102175</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01271646185274349</v>
+        <v>0.01309470221149491</v>
       </c>
     </row>
     <row r="7">
@@ -6113,22 +6467,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.3380598026320616</v>
+        <v>-0.3319542821750107</v>
       </c>
       <c r="C7" t="n">
-        <v>0.191658306641395</v>
+        <v>0.1915324961119658</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.8030641589471137</v>
+        <v>-0.7986996121910874</v>
       </c>
       <c r="E7" t="n">
-        <v>0.116220950898418</v>
+        <v>0.1229251752413089</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08373845701458371</v>
+        <v>0.08384874509646008</v>
       </c>
       <c r="G7" t="n">
-        <v>2.481671165468387e-09</v>
+        <v>2.917121205564654e-09</v>
       </c>
     </row>
     <row r="8">
@@ -6138,22 +6492,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.09470838598435902</v>
+        <v>0.1023387172400926</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02472243903443208</v>
+        <v>0.02231410533873281</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.1393514261766891</v>
+        <v>-0.1344613002634726</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5818380445027438</v>
+        <v>0.5515806456084733</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8198370382536606</v>
+        <v>0.8370994385006482</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1704416341379479</v>
+        <v>0.1855208624637511</v>
       </c>
     </row>
     <row r="9">
@@ -6163,22 +6517,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.2748343362308932</v>
+        <v>-0.2633278410472757</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.03769585446005486</v>
+        <v>-0.04184500444789353</v>
       </c>
       <c r="D9" t="n">
-        <v>0.03140389640689788</v>
+        <v>0.03322337455494175</v>
       </c>
       <c r="E9" t="n">
-        <v>0.09400521100287457</v>
+        <v>0.1082164522513749</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6969878196346078</v>
+        <v>0.665119811254365</v>
       </c>
       <c r="G9" t="n">
-        <v>0.728067510249109</v>
+        <v>0.7128048900133694</v>
       </c>
     </row>
     <row r="10">
@@ -6188,22 +6542,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.672284671718004</v>
+        <v>1.660087689435268</v>
       </c>
       <c r="C10" t="n">
-        <v>2.365066607472217</v>
+        <v>2.365322711163919</v>
       </c>
       <c r="D10" t="n">
-        <v>1.506881728200714</v>
+        <v>1.494810919902616</v>
       </c>
       <c r="E10" t="n">
-        <v>7.125198482660397e-11</v>
+        <v>9.826931135356027e-11</v>
       </c>
       <c r="F10" t="n">
-        <v>2.927362751567424e-73</v>
+        <v>2.507737666770424e-73</v>
       </c>
       <c r="G10" t="n">
-        <v>4.536470815844155e-20</v>
+        <v>7.492469381924614e-20</v>
       </c>
     </row>
     <row r="11">
@@ -6213,22 +6567,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.515370276466846</v>
+        <v>1.505364584070886</v>
       </c>
       <c r="C11" t="n">
-        <v>2.193439602746358</v>
+        <v>2.193158879853875</v>
       </c>
       <c r="D11" t="n">
-        <v>2.134156029649482</v>
+        <v>2.120744649887609</v>
       </c>
       <c r="E11" t="n">
-        <v>1.250529538434958e-05</v>
+        <v>1.413720324234325e-05</v>
       </c>
       <c r="F11" t="n">
-        <v>6.801071992181524e-28</v>
+        <v>6.634511471169985e-28</v>
       </c>
       <c r="G11" t="n">
-        <v>1.780441416611793e-25</v>
+        <v>2.973538250627304e-25</v>
       </c>
     </row>
     <row r="12">
@@ -6238,22 +6592,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.27777223838298</v>
+        <v>1.26617621885342</v>
       </c>
       <c r="C12" t="n">
-        <v>1.217531069506991</v>
+        <v>1.218496197484299</v>
       </c>
       <c r="D12" t="n">
-        <v>1.185572876426904</v>
+        <v>1.174980044257328</v>
       </c>
       <c r="E12" t="n">
-        <v>5.385870843682379e-06</v>
+        <v>6.582766482311755e-06</v>
       </c>
       <c r="F12" t="n">
-        <v>1.604037475285238e-19</v>
+        <v>1.445636942398007e-19</v>
       </c>
       <c r="G12" t="n">
-        <v>5.851030096744945e-11</v>
+        <v>8.071332800706534e-11</v>
       </c>
     </row>
     <row r="13">
@@ -6263,22 +6617,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.673868853825826</v>
+        <v>1.665081105208047</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7971521716508184</v>
+        <v>0.7977152989160107</v>
       </c>
       <c r="D13" t="n">
-        <v>1.018012317223524</v>
+        <v>1.010873908531349</v>
       </c>
       <c r="E13" t="n">
-        <v>9.84956203167231e-13</v>
+        <v>1.328752889434033e-12</v>
       </c>
       <c r="F13" t="n">
-        <v>2.594399412806383e-07</v>
+        <v>2.542648296614772e-07</v>
       </c>
       <c r="G13" t="n">
-        <v>5.966812204244861e-10</v>
+        <v>7.538050885917806e-10</v>
       </c>
     </row>
     <row r="14">
@@ -6288,22 +6642,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.131718150420978</v>
+        <v>1.118320245157737</v>
       </c>
       <c r="C14" t="n">
-        <v>0.984971842503803</v>
+        <v>0.9834104718619081</v>
       </c>
       <c r="D14" t="n">
-        <v>1.574853926527992</v>
+        <v>1.567109689273154</v>
       </c>
       <c r="E14" t="n">
-        <v>0.00172482286332868</v>
+        <v>0.001951095809845193</v>
       </c>
       <c r="F14" t="n">
-        <v>7.148602792284581e-08</v>
+        <v>7.397742924151674e-08</v>
       </c>
       <c r="G14" t="n">
-        <v>4.093962935356252e-16</v>
+        <v>5.202307164830739e-16</v>
       </c>
     </row>
     <row r="15">
@@ -6313,22 +6667,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1494557741582867</v>
+        <v>0.1360611362453664</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.220611568423614</v>
+        <v>-0.2153368848813202</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6375544959650459</v>
+        <v>0.6342671426363951</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5014773986735008</v>
+        <v>0.5402467241699727</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1248616714062671</v>
+        <v>0.1334641622396867</v>
       </c>
       <c r="G15" t="n">
-        <v>1.885024980985865e-06</v>
+        <v>2.126651175131739e-06</v>
       </c>
     </row>
     <row r="16">
@@ -6338,22 +6692,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.3232772910352495</v>
+        <v>-0.3301234108470166</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8368871327333611</v>
+        <v>0.838959762136856</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5132596655288859</v>
+        <v>0.5156869203339342</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5054936621871902</v>
+        <v>0.4965059610512934</v>
       </c>
       <c r="F16" t="n">
-        <v>2.112561225540404e-06</v>
+        <v>1.991888424511628e-06</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04426368618724891</v>
+        <v>0.04313361966541409</v>
       </c>
     </row>
     <row r="17">
@@ -6363,22 +6717,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-42.29686261014155</v>
+        <v>-12.84053263087615</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.2000914812068031</v>
+        <v>-0.1856014588265691</v>
       </c>
       <c r="D17" t="n">
-        <v>0.798090728917997</v>
+        <v>0.7813379605935816</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999999723843886</v>
+        <v>0.9785828971169375</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6415415300711822</v>
+        <v>0.6651410753227467</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04488060537120796</v>
+        <v>0.04997633294507444</v>
       </c>
     </row>
     <row r="18">
@@ -6388,22 +6742,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.474482550318427</v>
+        <v>-0.480460255572317</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5538869600414831</v>
+        <v>0.5547791827288239</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6853181861108358</v>
+        <v>0.6867520858131095</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1275089283088031</v>
+        <v>0.1226912059203034</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0008318771762325031</v>
+        <v>0.0008129257628315763</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0001221463944174988</v>
+        <v>0.0001159079554303552</v>
       </c>
     </row>
     <row r="19">
@@ -6413,22 +6767,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.6475630741710667</v>
+        <v>0.8295761144469558</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.3475237395778739</v>
+        <v>-0.354763861659484</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7071101402874878</v>
+        <v>0.7898350200994597</v>
       </c>
       <c r="E19" t="n">
-        <v>0.07926930552570752</v>
+        <v>0.02142270876474532</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1786895623755683</v>
+        <v>0.1623071898236146</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0007778450822034873</v>
+        <v>0.000125807982805089</v>
       </c>
     </row>
     <row r="20">
@@ -6438,22 +6792,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.013473385928625</v>
+        <v>1.842473292905352</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2021747501065305</v>
+        <v>0.2155765070348699</v>
       </c>
       <c r="D20" t="n">
-        <v>2.020688405469218</v>
+        <v>1.961039077842723</v>
       </c>
       <c r="E20" t="n">
-        <v>8.131017766799734e-06</v>
+        <v>2.527673165853734e-05</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4785136741181549</v>
+        <v>0.4474553153120944</v>
       </c>
       <c r="G20" t="n">
-        <v>8.89165438890501e-17</v>
+        <v>3.25307275871487e-16</v>
       </c>
     </row>
     <row r="21">
@@ -6463,22 +6817,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.7685255551307806</v>
+        <v>0.571850925455667</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3954284430088837</v>
+        <v>0.415254438807573</v>
       </c>
       <c r="D21" t="n">
-        <v>1.053055475194354</v>
+        <v>0.968385400336942</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1927509639561222</v>
+        <v>0.3234420239867311</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3761192745943052</v>
+        <v>0.3495438836684567</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0001453749161131363</v>
+        <v>0.0003858529116541997</v>
       </c>
     </row>
     <row r="22">
@@ -6488,22 +6842,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.06054992684287652</v>
+        <v>-0.07707213380916093</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4121762676181197</v>
+        <v>0.413739763681382</v>
       </c>
       <c r="D22" t="n">
-        <v>1.075310051559142</v>
+        <v>1.067537105534754</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8483471053644515</v>
+        <v>0.80768739333853</v>
       </c>
       <c r="F22" t="n">
-        <v>0.008840048802632687</v>
+        <v>0.008535078695897405</v>
       </c>
       <c r="G22" t="n">
-        <v>3.008189720408813e-11</v>
+        <v>3.973619408845428e-11</v>
       </c>
     </row>
     <row r="23">
@@ -6513,22 +6867,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>20.25636963245931</v>
+        <v>30.85971559468062</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.5243104653111551</v>
+        <v>-0.5273841852281597</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3014799463377147</v>
+        <v>0.3461044714092962</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9995063156880903</v>
+        <v>0.9999948749162378</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2814539945284924</v>
+        <v>0.2784722082821562</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6025941967593933</v>
+        <v>0.5488666874313795</v>
       </c>
     </row>
     <row r="24">
@@ -6538,22 +6892,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>18.3171993695574</v>
+        <v>28.9275288557265</v>
       </c>
       <c r="C24" t="n">
-        <v>-2.453432566805595</v>
+        <v>-2.456662644633098</v>
       </c>
       <c r="D24" t="n">
-        <v>-2.486818339888339</v>
+        <v>-2.436125520263435</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9995535767644457</v>
+        <v>0.9999951958076878</v>
       </c>
       <c r="F24" t="n">
-        <v>1.308637093908055e-06</v>
+        <v>1.251267884735246e-06</v>
       </c>
       <c r="G24" t="n">
-        <v>2.852053259896846e-05</v>
+        <v>3.92793359059657e-05</v>
       </c>
     </row>
     <row r="25">
@@ -6563,22 +6917,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>21.46869824519401</v>
+        <v>31.943665004291</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6732270428304372</v>
+        <v>0.6689467383667086</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9946044698325768</v>
+        <v>1.001555196068041</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9994767690546266</v>
+        <v>0.9999946948973553</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2891435121150776</v>
+        <v>0.2920723768227721</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1398810795714814</v>
+        <v>0.136438452567283</v>
       </c>
     </row>
     <row r="26">
@@ -6588,422 +6942,397 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>21.04808069664621</v>
+        <v>31.6887389231791</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.463641784402593</v>
+        <v>-0.4774973429964892</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2889197586305133</v>
+        <v>0.362388407086202</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9994870202621695</v>
+        <v>0.9999947372346709</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3091932828070395</v>
+        <v>0.2932152975239039</v>
       </c>
       <c r="G26" t="n">
-        <v>0.607317693122323</v>
+        <v>0.517253382506614</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>21.52454233655315</v>
+        <v>32.23216902910907</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.5199925858430425</v>
+        <v>-0.7282707396740391</v>
       </c>
       <c r="D27" t="n">
-        <v>0.510172171635766</v>
+        <v>0.3602334212656059</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9994754080332077</v>
+        <v>0.9999946469835211</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2621648880107298</v>
+        <v>0.1093920429847034</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3676550159107589</v>
+        <v>0.5199086979726717</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>21.78107384713436</v>
+        <v>-0.381070974209413</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.7324837043542942</v>
+        <v>0.08002882378464919</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3685365709787742</v>
+        <v>0.4405518103136947</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9994691558979477</v>
+        <v>0.002926696097662768</v>
       </c>
       <c r="F28" t="n">
-        <v>0.107390482357739</v>
+        <v>0.2902839962496756</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5110906810090616</v>
+        <v>5.095268654675048e-10</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.3852914794759492</v>
+        <v>0.0005548519997547061</v>
       </c>
       <c r="C29" t="n">
-        <v>0.07863149224769474</v>
+        <v>-0.007298582124796326</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4374956027684178</v>
+        <v>-0.009208366756476809</v>
       </c>
       <c r="E29" t="n">
-        <v>0.002654838857779971</v>
+        <v>0.9338939619484136</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2988078315923446</v>
+        <v>0.0806048848826395</v>
       </c>
       <c r="G29" t="n">
-        <v>6.859711341512874e-10</v>
+        <v>0.01693508391952122</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Trip_Distance</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.001126718473911987</v>
+        <v>-0.0003351531687982899</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.007454368064165513</v>
+        <v>-0.001959729333233655</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.008842663928416617</v>
+        <v>5.422918427031471e-05</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8663346970203674</v>
+        <v>2.445793268645665e-30</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0747870874768248</v>
+        <v>1.775717813723554e-300</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02208196497267378</v>
+        <v>3.506546287855252e-20</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Trip_Distance</t>
+          <t>CarOwnershipHH</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.0003351611027985047</v>
+        <v>-2.078980101571632</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.001958237038246663</v>
+        <v>-2.508051611921605</v>
       </c>
       <c r="D31" t="n">
-        <v>5.402396092848324e-05</v>
+        <v>-3.121185467176594</v>
       </c>
       <c r="E31" t="n">
-        <v>2.510692992135101e-30</v>
+        <v>5.636078593799915e-20</v>
       </c>
       <c r="F31" t="n">
-        <v>5.956758374208148e-300</v>
+        <v>1.541907249420036e-55</v>
       </c>
       <c r="G31" t="n">
-        <v>4.940705443696835e-20</v>
+        <v>3.00764425368611e-109</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-2.113096120667879</v>
+        <v>0.1460819705909598</v>
       </c>
       <c r="C32" t="n">
-        <v>-2.501365450611883</v>
+        <v>0.04997713359833093</v>
       </c>
       <c r="D32" t="n">
-        <v>-3.139187449705529</v>
+        <v>-0.02718019673701672</v>
       </c>
       <c r="E32" t="n">
-        <v>1.692734586518913e-20</v>
+        <v>0.002911639278921646</v>
       </c>
       <c r="F32" t="n">
-        <v>4.820798574228027e-55</v>
+        <v>0.1322298296727243</v>
       </c>
       <c r="G32" t="n">
-        <v>9.133956525529598e-110</v>
+        <v>0.3654854006333732</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>UrbPopDensity_origin</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1493650828669768</v>
+        <v>4.727051181064035e-05</v>
       </c>
       <c r="C33" t="n">
-        <v>0.04980316961952656</v>
+        <v>0.0001166400012830234</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.02496855709130837</v>
+        <v>0.0001692368190464175</v>
       </c>
       <c r="E33" t="n">
-        <v>0.002411185876034167</v>
+        <v>0.2987525531485125</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1336495008227987</v>
+        <v>1.523811513368467e-05</v>
       </c>
       <c r="G33" t="n">
-        <v>0.4063785760603115</v>
+        <v>2.01938775891223e-11</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
+          <t>DistSubcenter_origin</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4.74801853851709e-05</v>
+        <v>-0.05165820463727735</v>
       </c>
       <c r="C34" t="n">
-        <v>0.000116742454870242</v>
+        <v>-0.01600122236852148</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0001698690611399941</v>
+        <v>0.005315345200810135</v>
       </c>
       <c r="E34" t="n">
-        <v>0.298748474487925</v>
+        <v>0.2318352618604651</v>
       </c>
       <c r="F34" t="n">
-        <v>1.484746296559441e-05</v>
+        <v>0.4418708734618954</v>
       </c>
       <c r="G34" t="n">
-        <v>1.802919578346361e-11</v>
+        <v>0.7992896285253877</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
+          <t>DistCenter_origin</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.05232849221581658</v>
+        <v>-0.05733987423733951</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.01584382546603724</v>
+        <v>-0.02957080530705897</v>
       </c>
       <c r="D35" t="n">
-        <v>0.005223736161288905</v>
+        <v>-0.1305192081392709</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2265389731526252</v>
+        <v>0.05798698743043388</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4463619458106004</v>
+        <v>0.03421370617917961</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8028001163495271</v>
+        <v>4.146409629488541e-17</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
+          <t>UrbBuildDensity_origin</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.05585601134759972</v>
+        <v>4.671305819866317e-09</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.02951203319861684</v>
+        <v>-2.695405283357199e-08</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.1299092726802574</v>
+        <v>-3.762706479931898e-08</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0650763224167849</v>
+        <v>0.903589393311809</v>
       </c>
       <c r="F36" t="n">
-        <v>0.03455833472776896</v>
+        <v>0.2292441142137784</v>
       </c>
       <c r="G36" t="n">
-        <v>5.931336183926759e-17</v>
+        <v>0.08924712426578713</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
+          <t>IntersecDensity_origin</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.76493614180813e-09</v>
+        <v>-0.004691026014183714</v>
       </c>
       <c r="C37" t="n">
-        <v>-2.590326588193563e-08</v>
+        <v>0.004771490637635161</v>
       </c>
       <c r="D37" t="n">
-        <v>-3.903781293351441e-08</v>
+        <v>0.0006551954179283491</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9638449230009757</v>
+        <v>0.3103601162886194</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2478533569879384</v>
+        <v>0.07537849841074422</v>
       </c>
       <c r="G37" t="n">
-        <v>0.07868275995102809</v>
+        <v>0.7942552249954261</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
+          <t>street_length_origin</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.00468761568672306</v>
+        <v>-0.001679133899592943</v>
       </c>
       <c r="C38" t="n">
-        <v>0.004811930845875138</v>
+        <v>0.009244341169196126</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0006774785911049758</v>
+        <v>-0.001137093584846186</v>
       </c>
       <c r="E38" t="n">
-        <v>0.3111199588677992</v>
+        <v>0.7702253362108813</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07291050801256385</v>
+        <v>0.001355572671071244</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7874619637298612</v>
+        <v>0.6210082438733027</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
+          <t>bike_lane_share_origin</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.001740077524214967</v>
+        <v>2.288513065716613</v>
       </c>
       <c r="C39" t="n">
-        <v>0.009375188734657472</v>
+        <v>1.570633301110855</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.001108978652815062</v>
+        <v>-1.915849180443414</v>
       </c>
       <c r="E39" t="n">
-        <v>0.7625075292656136</v>
+        <v>0.008654389070150384</v>
       </c>
       <c r="F39" t="n">
-        <v>0.001147319643349945</v>
+        <v>0.009909040482976821</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6296821234923777</v>
+        <v>0.0007778808342741902</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
+          <t>LU_UrbFab_origin</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2.32897691216668</v>
+        <v>0.8205535618183063</v>
       </c>
       <c r="C40" t="n">
-        <v>1.561387423858585</v>
+        <v>0.03069813246655599</v>
       </c>
       <c r="D40" t="n">
-        <v>-1.921185510370604</v>
+        <v>-0.9770401827401958</v>
       </c>
       <c r="E40" t="n">
-        <v>0.007786869966082246</v>
+        <v>0.1036079873425451</v>
       </c>
       <c r="F40" t="n">
-        <v>0.01036362648223975</v>
+        <v>0.9098022846485985</v>
       </c>
       <c r="G40" t="n">
-        <v>0.000763587784768498</v>
+        <v>0.0003644393361429155</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
+          <t>LU_Comm_origin</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.8075752520922694</v>
+        <v>0.27001184917556</v>
       </c>
       <c r="C41" t="n">
-        <v>0.03818738552980575</v>
+        <v>0.9970765434186711</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.9794757028567596</v>
+        <v>0.7857110000745839</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1092079445764936</v>
+        <v>0.7349150405228999</v>
       </c>
       <c r="F41" t="n">
-        <v>0.887965763562355</v>
+        <v>0.02171877306500946</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0003522037362792881</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>LU_Comm_origin</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>0.2786052077326538</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.99120531730089</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.8021414147612294</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.7276769429387957</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.02249225884486572</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.04411042070823584</v>
+        <v>0.0485084980919291</v>
       </c>
     </row>
   </sheetData>
@@ -7017,7 +7346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7069,22 +7398,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-16.27954486550699</v>
+        <v>-14.88914068941276</v>
       </c>
       <c r="C2" t="n">
-        <v>2.048083547271307</v>
+        <v>2.071753080178578</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1881242689343494</v>
+        <v>-0.1742546227221846</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9918592625922933</v>
+        <v>0.985043251067691</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003660299562757329</v>
+        <v>0.003298578982585741</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7968772646938532</v>
+        <v>0.8113248022718438</v>
       </c>
     </row>
     <row r="3">
@@ -7094,22 +7423,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1673036970161108</v>
+        <v>-0.1609409734789193</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2975643983704431</v>
+        <v>0.2937296121202156</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.3354466672367888</v>
+        <v>-0.3330531037865064</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3902995117277691</v>
+        <v>0.4083589403185851</v>
       </c>
       <c r="F3" t="n">
-        <v>0.007906790412489637</v>
+        <v>0.008727756226557228</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001975092666751077</v>
+        <v>0.002104536263299921</v>
       </c>
     </row>
     <row r="4">
@@ -7119,22 +7448,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.9792060233945545</v>
+        <v>-0.9776218719188675</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.064600363516487</v>
+        <v>-1.071987835770049</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.239293226591274</v>
+        <v>-1.236788216822</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0007271845407914652</v>
+        <v>0.0007443136352026214</v>
       </c>
       <c r="F4" t="n">
-        <v>1.898179866351953e-09</v>
+        <v>1.491092437310331e-09</v>
       </c>
       <c r="G4" t="n">
-        <v>5.445636657480498e-12</v>
+        <v>5.866562400246199e-12</v>
       </c>
     </row>
     <row r="5">
@@ -7144,22 +7473,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2096491675743928</v>
+        <v>-0.2095026980525717</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04315330627177492</v>
+        <v>0.04197112539593311</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6494601791267756</v>
+        <v>-0.6488761559610524</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3231799584445999</v>
+        <v>0.3235360016195955</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7525871094446706</v>
+        <v>0.7589820731889499</v>
       </c>
       <c r="G5" t="n">
-        <v>1.318841904333481e-06</v>
+        <v>1.334770217788864e-06</v>
       </c>
     </row>
     <row r="6">
@@ -7169,22 +7498,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.03109463239300896</v>
+        <v>-0.02765503992716959</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08740325633410005</v>
+        <v>0.09103104197124184</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.009192895798219</v>
+        <v>-1.006076855326504</v>
       </c>
       <c r="E6" t="n">
-        <v>0.948359895856586</v>
+        <v>0.9540168327585968</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8210123818663568</v>
+        <v>0.8141238815411905</v>
       </c>
       <c r="G6" t="n">
-        <v>0.007259909203444539</v>
+        <v>0.007514212230022397</v>
       </c>
     </row>
     <row r="7">
@@ -7194,22 +7523,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.3293555769840258</v>
+        <v>-0.325017897412064</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2302789456884347</v>
+        <v>0.2296932751921678</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.8388130558827931</v>
+        <v>-0.8331971129059111</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1179331337469958</v>
+        <v>0.1228763107268444</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03782587013547965</v>
+        <v>0.0382306102228382</v>
       </c>
       <c r="G7" t="n">
-        <v>4.72137787273045e-10</v>
+        <v>5.854073681872393e-10</v>
       </c>
     </row>
     <row r="8">
@@ -7219,22 +7548,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1868357439489673</v>
+        <v>0.1929826997181813</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09179110089313131</v>
+        <v>0.08701936145253104</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.1265614030814592</v>
+        <v>-0.1208837479072748</v>
       </c>
       <c r="E8" t="n">
-        <v>0.26292690530104</v>
+        <v>0.2471840149319553</v>
       </c>
       <c r="F8" t="n">
-        <v>0.397622484773657</v>
+        <v>0.4222585448757016</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2096794798020502</v>
+        <v>0.2303215218236078</v>
       </c>
     </row>
     <row r="9">
@@ -7244,22 +7573,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.3080196641620336</v>
+        <v>-0.3013119462549725</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.00257751940002944</v>
+        <v>-0.009852528716833913</v>
       </c>
       <c r="D9" t="n">
-        <v>0.009653690991888481</v>
+        <v>0.01148603833027482</v>
       </c>
       <c r="E9" t="n">
-        <v>0.05573125887443043</v>
+        <v>0.06101789047042143</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9787979150631346</v>
+        <v>0.9189329786561166</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9144694877008962</v>
+        <v>0.8982464642806181</v>
       </c>
     </row>
     <row r="10">
@@ -7269,22 +7598,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.579689611314476</v>
+        <v>1.573781577210444</v>
       </c>
       <c r="C10" t="n">
-        <v>2.281799848900475</v>
+        <v>2.282910964401496</v>
       </c>
       <c r="D10" t="n">
-        <v>1.486824170342131</v>
+        <v>1.475821962658553</v>
       </c>
       <c r="E10" t="n">
-        <v>5.193826336934813e-10</v>
+        <v>6.04372883394001e-10</v>
       </c>
       <c r="F10" t="n">
-        <v>2.99334929606543e-69</v>
+        <v>2.357651724307551e-69</v>
       </c>
       <c r="G10" t="n">
-        <v>1.330030337709911e-20</v>
+        <v>2.099839096202044e-20</v>
       </c>
     </row>
     <row r="11">
@@ -7294,22 +7623,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.496338972931617</v>
+        <v>1.489268522351314</v>
       </c>
       <c r="C11" t="n">
-        <v>2.256822714085892</v>
+        <v>2.259226608034941</v>
       </c>
       <c r="D11" t="n">
-        <v>2.23155365228047</v>
+        <v>2.219153198462671</v>
       </c>
       <c r="E11" t="n">
-        <v>1.229451056114843e-05</v>
+        <v>1.331517355078644e-05</v>
       </c>
       <c r="F11" t="n">
-        <v>3.827638311044383e-30</v>
+        <v>3.139865122139018e-30</v>
       </c>
       <c r="G11" t="n">
-        <v>3.182982633486643e-28</v>
+        <v>5.212671564405481e-28</v>
       </c>
     </row>
     <row r="12">
@@ -7319,22 +7648,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.178562824788588</v>
+        <v>1.173327012214258</v>
       </c>
       <c r="C12" t="n">
-        <v>1.186523912657725</v>
+        <v>1.189411204786549</v>
       </c>
       <c r="D12" t="n">
-        <v>1.190413121130569</v>
+        <v>1.179693118440984</v>
       </c>
       <c r="E12" t="n">
-        <v>2.437989446762287e-05</v>
+        <v>2.64780843858548e-05</v>
       </c>
       <c r="F12" t="n">
-        <v>1.73705684647273e-18</v>
+        <v>1.380527351604211e-18</v>
       </c>
       <c r="G12" t="n">
-        <v>1.437339612676514e-11</v>
+        <v>2.005273583348891e-11</v>
       </c>
     </row>
     <row r="13">
@@ -7344,22 +7673,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.723134054887979</v>
+        <v>1.719962224844012</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8109674325212778</v>
+        <v>0.8124067262584568</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9271163871018272</v>
+        <v>0.92184498419538</v>
       </c>
       <c r="E13" t="n">
-        <v>5.780440796095768e-14</v>
+        <v>6.434814502304841e-14</v>
       </c>
       <c r="F13" t="n">
-        <v>1.986842464925331e-07</v>
+        <v>1.879304447189713e-07</v>
       </c>
       <c r="G13" t="n">
-        <v>6.363188207093247e-09</v>
+        <v>7.42047131185019e-09</v>
       </c>
     </row>
     <row r="14">
@@ -7369,22 +7698,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.107752311586103</v>
+        <v>1.103340929835901</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9133423976403271</v>
+        <v>0.910845528795579</v>
       </c>
       <c r="D14" t="n">
-        <v>1.481784714345956</v>
+        <v>1.475194995174903</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001233340226058597</v>
+        <v>0.00128736263605636</v>
       </c>
       <c r="F14" t="n">
-        <v>4.622589410808037e-07</v>
+        <v>4.851690536883604e-07</v>
       </c>
       <c r="G14" t="n">
-        <v>6.007163304312375e-15</v>
+        <v>7.32412750523904e-15</v>
       </c>
     </row>
     <row r="15">
@@ -7394,22 +7723,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.04369135953375301</v>
+        <v>0.03927393880745191</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.2244051532670167</v>
+        <v>-0.2162014714987282</v>
       </c>
       <c r="D15" t="n">
-        <v>0.651093345435802</v>
+        <v>0.6479742955565887</v>
       </c>
       <c r="E15" t="n">
-        <v>0.842906398338124</v>
+        <v>0.8585543573530081</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1177044440070448</v>
+        <v>0.1310181469003152</v>
       </c>
       <c r="G15" t="n">
-        <v>1.137491912113902e-06</v>
+        <v>1.268167237039191e-06</v>
       </c>
     </row>
     <row r="16">
@@ -7419,22 +7748,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.4766551623335903</v>
+        <v>-0.4812921451383606</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8640102055093626</v>
+        <v>0.8679188965558365</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6559553249895533</v>
+        <v>0.6544734631915806</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3712630121935669</v>
+        <v>0.3666230985271347</v>
       </c>
       <c r="F16" t="n">
-        <v>1.161665487795701e-06</v>
+        <v>1.032139565506879e-06</v>
       </c>
       <c r="G16" t="n">
-        <v>0.006914198404542869</v>
+        <v>0.007053802206201772</v>
       </c>
     </row>
     <row r="17">
@@ -7444,22 +7773,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-18.65298510850425</v>
+        <v>-18.98332482326295</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.4724958777184302</v>
+        <v>-0.44111082286511</v>
       </c>
       <c r="D17" t="n">
-        <v>0.811447373982308</v>
+        <v>0.7903781556842452</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9982727314929167</v>
+        <v>0.9984927044108743</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2722916252643102</v>
+        <v>0.3037094702065132</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03972232843814743</v>
+        <v>0.04564144063425416</v>
       </c>
     </row>
     <row r="18">
@@ -7469,22 +7798,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.2376262316601145</v>
+        <v>-0.2417309009451069</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5243941610604064</v>
+        <v>0.5286167127384884</v>
       </c>
       <c r="D18" t="n">
-        <v>0.734046060639798</v>
+        <v>0.7354289695461059</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4256528452048812</v>
+        <v>0.4175161172026264</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001697005023632633</v>
+        <v>0.001548483630531429</v>
       </c>
       <c r="G18" t="n">
-        <v>2.934281511070967e-05</v>
+        <v>2.783647484856629e-05</v>
       </c>
     </row>
     <row r="19">
@@ -7494,22 +7823,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.7794980720064166</v>
+        <v>0.8954240280872457</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.1857929645879269</v>
+        <v>-0.2177948818896305</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5403748852357939</v>
+        <v>0.6338942988300613</v>
       </c>
       <c r="E19" t="n">
-        <v>0.03090017497468386</v>
+        <v>0.01056439902792169</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4672443463887033</v>
+        <v>0.3862158725856744</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01009686315652122</v>
+        <v>0.002045816228205993</v>
       </c>
     </row>
     <row r="20">
@@ -7519,22 +7848,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.769823963563973</v>
+        <v>1.686355127562039</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1697584857414245</v>
+        <v>0.197795153090424</v>
       </c>
       <c r="D20" t="n">
-        <v>1.917387349009416</v>
+        <v>1.851702108899308</v>
       </c>
       <c r="E20" t="n">
-        <v>8.977482114799077e-05</v>
+        <v>0.0001404480555983112</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5478305336970341</v>
+        <v>0.4814342641483923</v>
       </c>
       <c r="G20" t="n">
-        <v>3.305492488973444e-15</v>
+        <v>1.433008962182238e-14</v>
       </c>
     </row>
     <row r="21">
@@ -7544,22 +7873,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.836843092848487</v>
+        <v>0.7346259219748134</v>
       </c>
       <c r="C21" t="n">
-        <v>0.360341260098151</v>
+        <v>0.4100229576093426</v>
       </c>
       <c r="D21" t="n">
-        <v>1.025409047853735</v>
+        <v>0.9342477147739979</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1576870790517203</v>
+        <v>0.2087516338133397</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4204447970466919</v>
+        <v>0.3562536032070402</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0006253269510367065</v>
+        <v>0.001594291060636047</v>
       </c>
     </row>
     <row r="22">
@@ -7569,22 +7898,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.08695623185312978</v>
+        <v>-0.09432964599022055</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4641404897949868</v>
+        <v>0.469732537094497</v>
       </c>
       <c r="D22" t="n">
-        <v>1.067611567105594</v>
+        <v>1.060326199102456</v>
       </c>
       <c r="E22" t="n">
-        <v>0.78865939196366</v>
+        <v>0.7711485408280611</v>
       </c>
       <c r="F22" t="n">
-        <v>0.003307729830573657</v>
+        <v>0.002933829625073638</v>
       </c>
       <c r="G22" t="n">
-        <v>3.709111280939772e-11</v>
+        <v>4.677406854056695e-11</v>
       </c>
     </row>
     <row r="23">
@@ -7594,22 +7923,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>14.4861940031263</v>
+        <v>13.16759892601672</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.1845151173377265</v>
+        <v>-0.194405643512375</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2791686941592393</v>
+        <v>0.3285099051757875</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9927560171969254</v>
+        <v>0.9867724340065412</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7056752789967778</v>
+        <v>0.6905499859057176</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6327263993604916</v>
+        <v>0.5727287259934171</v>
       </c>
     </row>
     <row r="24">
@@ -7619,22 +7948,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>12.79525623655863</v>
+        <v>11.48209670252886</v>
       </c>
       <c r="C24" t="n">
-        <v>-2.027623260173305</v>
+        <v>-2.039908894430708</v>
       </c>
       <c r="D24" t="n">
-        <v>-2.511977228749381</v>
+        <v>-2.456327864312088</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9936015701948713</v>
+        <v>0.9884654859240696</v>
       </c>
       <c r="F24" t="n">
-        <v>6.572066650733354e-05</v>
+        <v>5.870979564782887e-05</v>
       </c>
       <c r="G24" t="n">
-        <v>2.743089971860484e-05</v>
+        <v>3.901626200916285e-05</v>
       </c>
     </row>
     <row r="25">
@@ -7644,22 +7973,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.5788894931353</v>
+        <v>14.19310231495551</v>
       </c>
       <c r="C25" t="n">
-        <v>1.042950209004317</v>
+        <v>1.038447346940481</v>
       </c>
       <c r="D25" t="n">
-        <v>0.786753113515017</v>
+        <v>0.7944505834490256</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9922096208662671</v>
+        <v>0.9857423770075517</v>
       </c>
       <c r="F25" t="n">
-        <v>0.102939129661257</v>
+        <v>0.1042837616764544</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2554310587596195</v>
+        <v>0.2499346590068647</v>
       </c>
     </row>
     <row r="26">
@@ -7669,422 +7998,397 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>15.13740727803726</v>
+        <v>13.842223381627</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.1991395111363168</v>
+        <v>-0.2362818726300236</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2739328258838023</v>
+        <v>0.3538289227180111</v>
       </c>
       <c r="E26" t="n">
-        <v>0.992430380120855</v>
+        <v>0.9860948028267915</v>
       </c>
       <c r="F26" t="n">
-        <v>0.6638007363795924</v>
+        <v>0.604758183382465</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6290399883084264</v>
+        <v>0.5307633634201608</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>15.41642644585778</v>
+        <v>14.44936709918346</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.3379651991923101</v>
+        <v>-0.5384446344379702</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5193260800152776</v>
+        <v>0.3655804921985691</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9922908579731987</v>
+        <v>0.9854849627358344</v>
       </c>
       <c r="F27" t="n">
-        <v>0.4687223976624506</v>
+        <v>0.2387266594669681</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3632721011597591</v>
+        <v>0.5173378052818876</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>15.84694323884151</v>
+        <v>-0.4011010051445826</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.5463040095398527</v>
+        <v>0.0438290269522506</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3754725309855389</v>
+        <v>0.412102870573132</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9920755805707367</v>
+        <v>0.001270265012156623</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2320601835085385</v>
+        <v>0.5624313921853601</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5068902622678655</v>
+        <v>4.453840119503446e-09</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.4056471239527081</v>
+        <v>0.001501148245052673</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0435166315139291</v>
+        <v>-0.001524656799919106</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4068372428605455</v>
+        <v>-0.008236857806834651</v>
       </c>
       <c r="E29" t="n">
-        <v>0.001126530578882936</v>
+        <v>0.8176006058900902</v>
       </c>
       <c r="F29" t="n">
-        <v>0.5653808505094001</v>
+        <v>0.7168599581819156</v>
       </c>
       <c r="G29" t="n">
-        <v>7.270998837252606e-09</v>
+        <v>0.03164869212761366</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Trip_Distance</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.001703604858126109</v>
+        <v>-0.0003044357966318685</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.001786412903320482</v>
+        <v>-0.001910683257187872</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.007883195680890633</v>
+        <v>5.490028415217132e-05</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7936531510653502</v>
+        <v>5.278638225837835e-30</v>
       </c>
       <c r="F30" t="n">
-        <v>0.6713229290388082</v>
+        <v>6.844719991308066e-297</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04013279149389275</v>
+        <v>1.241337563365073e-20</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Trip_Distance</t>
+          <t>CarOwnershipHH</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.000304389208880004</v>
+        <v>-2.015156725278522</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.001908857713171975</v>
+        <v>-2.44131924359054</v>
       </c>
       <c r="D31" t="n">
-        <v>5.474325937375973e-05</v>
+        <v>-3.103285853239154</v>
       </c>
       <c r="E31" t="n">
-        <v>5.395604041389252e-30</v>
+        <v>2.703528065663109e-19</v>
       </c>
       <c r="F31" t="n">
-        <v>2.179913230258484e-296</v>
+        <v>5.133149330131848e-53</v>
       </c>
       <c r="G31" t="n">
-        <v>1.61506127047528e-20</v>
+        <v>3.510510077637634e-109</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-2.036738798424742</v>
+        <v>0.1343782775332357</v>
       </c>
       <c r="C32" t="n">
-        <v>-2.433557639014577</v>
+        <v>0.05126899728617814</v>
       </c>
       <c r="D32" t="n">
-        <v>-3.124067710084552</v>
+        <v>-0.008801128219637378</v>
       </c>
       <c r="E32" t="n">
-        <v>1.399982671596336e-19</v>
+        <v>0.005937395157059934</v>
       </c>
       <c r="F32" t="n">
-        <v>1.718683555571396e-52</v>
+        <v>0.1214498368748149</v>
       </c>
       <c r="G32" t="n">
-        <v>7.213913072057015e-110</v>
+        <v>0.769210060894614</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>UrbPopDensity_origin</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1366191357839743</v>
+        <v>8.095910426130293e-05</v>
       </c>
       <c r="C33" t="n">
-        <v>0.05056690421795611</v>
+        <v>0.0001158627206078338</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.00635460716858075</v>
+        <v>0.0001744726680809307</v>
       </c>
       <c r="E33" t="n">
-        <v>0.005250621784618874</v>
+        <v>0.06889809119917006</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1266963888080798</v>
+        <v>1.970118121126223e-05</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8324567937093412</v>
+        <v>7.638842548116404e-12</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
+          <t>DistSubcenter_origin</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>8.108219861173658e-05</v>
+        <v>-0.055084448098096</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0001160352898149953</v>
+        <v>-0.01731104127285719</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0001746874170084545</v>
+        <v>0.01599934371587824</v>
       </c>
       <c r="E34" t="n">
-        <v>0.06909498908923131</v>
+        <v>0.1809418150568262</v>
       </c>
       <c r="F34" t="n">
-        <v>1.904244333169098e-05</v>
+        <v>0.402195601416928</v>
       </c>
       <c r="G34" t="n">
-        <v>7.759554196317877e-12</v>
+        <v>0.4365561918171491</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
+          <t>DistCenter_origin</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.0554000435274837</v>
+        <v>-0.03771882846728977</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.01712927234030722</v>
+        <v>-0.03646253454029405</v>
       </c>
       <c r="D35" t="n">
-        <v>0.01547230676540268</v>
+        <v>-0.1313615272440471</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1788559319561779</v>
+        <v>0.1768812778753434</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4070834083764634</v>
+        <v>0.008809652571013885</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4522511498628697</v>
+        <v>6.6739600055252e-18</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
+          <t>UrbBuildDensity_origin</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.03649781426332725</v>
+        <v>-1.818416259652769e-08</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.0365349875301095</v>
+        <v>-2.113932261799412e-08</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.1304532061314088</v>
+        <v>-5.002093227402996e-08</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1920595639170898</v>
+        <v>0.6412240324409506</v>
       </c>
       <c r="F36" t="n">
-        <v>0.008676273486411323</v>
+        <v>0.348417473530548</v>
       </c>
       <c r="G36" t="n">
-        <v>1.183141009491533e-17</v>
+        <v>0.02709342033317395</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
+          <t>IntersecDensity_origin</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-1.988035520833639e-08</v>
+        <v>-0.002372107001608141</v>
       </c>
       <c r="C37" t="n">
-        <v>-1.974203476210769e-08</v>
+        <v>0.004773889161975706</v>
       </c>
       <c r="D37" t="n">
-        <v>-5.175234025013118e-08</v>
+        <v>0.001680114315622757</v>
       </c>
       <c r="E37" t="n">
-        <v>0.6123444924565329</v>
+        <v>0.593632969612184</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3812401990409642</v>
+        <v>0.0755213200052428</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02273704242371335</v>
+        <v>0.4996633643094115</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
+          <t>street_length_origin</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.002378248415184482</v>
+        <v>-0.001217613456899846</v>
       </c>
       <c r="C38" t="n">
-        <v>0.004872565844984946</v>
+        <v>0.007671674773070788</v>
       </c>
       <c r="D38" t="n">
-        <v>0.001714280127706519</v>
+        <v>-0.001494049097128879</v>
       </c>
       <c r="E38" t="n">
-        <v>0.5927573272971858</v>
+        <v>0.8177671353728457</v>
       </c>
       <c r="F38" t="n">
-        <v>0.06968670824026567</v>
+        <v>0.009899635599775509</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4911017371395011</v>
+        <v>0.5160355625552062</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
+          <t>bike_lane_share_origin</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.001191948230733342</v>
+        <v>2.009796451969114</v>
       </c>
       <c r="C39" t="n">
-        <v>0.007876414900185383</v>
+        <v>1.501353692185326</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.001459708503039069</v>
+        <v>-1.662077295448994</v>
       </c>
       <c r="E39" t="n">
-        <v>0.8215296582013033</v>
+        <v>0.02076994838076331</v>
       </c>
       <c r="F39" t="n">
-        <v>0.007989797945389714</v>
+        <v>0.01379809519940621</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5258428651586853</v>
+        <v>0.003736807886059216</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
+          <t>LU_UrbFab_origin</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2.048107980618373</v>
+        <v>0.2605125179559977</v>
       </c>
       <c r="C40" t="n">
-        <v>1.484568538224237</v>
+        <v>-0.2143350521639417</v>
       </c>
       <c r="D40" t="n">
-        <v>-1.648254693404971</v>
+        <v>-1.154427605463665</v>
       </c>
       <c r="E40" t="n">
-        <v>0.01882123801036026</v>
+        <v>0.5950883783200156</v>
       </c>
       <c r="F40" t="n">
-        <v>0.01493120328849822</v>
+        <v>0.4288765789008181</v>
       </c>
       <c r="G40" t="n">
-        <v>0.004089086754865292</v>
+        <v>2.497574660486307e-05</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
+          <t>LU_Comm_origin</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2597604241686415</v>
+        <v>0.09046781911715657</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.2037543351494212</v>
+        <v>0.7091072925286305</v>
       </c>
       <c r="D41" t="n">
-        <v>-1.154496031076744</v>
+        <v>0.8607357814267084</v>
       </c>
       <c r="E41" t="n">
-        <v>0.5961523453426469</v>
+        <v>0.9077913553643402</v>
       </c>
       <c r="F41" t="n">
-        <v>0.4522372105346971</v>
+        <v>0.1041152545070798</v>
       </c>
       <c r="G41" t="n">
-        <v>2.513010617472779e-05</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>LU_Comm_origin</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>0.1035826701251551</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.7005807430102645</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.8838381953639092</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.8947228319729545</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.1083803294678874</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.02568606551630885</v>
+        <v>0.02962854669379719</v>
       </c>
     </row>
   </sheetData>
@@ -8098,7 +8402,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8471,7 +8775,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -8484,7 +8788,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -8497,7 +8801,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -8510,7 +8814,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Trip_Distance</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
@@ -8523,7 +8827,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Trip_Distance</t>
+          <t>CarOwnershipHH</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -8536,7 +8840,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -8549,7 +8853,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>UrbPopDensity_origin</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -8562,7 +8866,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
+          <t>DistSubcenter_origin</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -8575,7 +8879,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
+          <t>DistCenter_origin</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -8588,7 +8892,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
+          <t>UrbBuildDensity_origin</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -8601,7 +8905,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
+          <t>IntersecDensity_origin</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -8614,7 +8918,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
+          <t>street_length_origin</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -8627,7 +8931,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
+          <t>bike_lane_share_origin</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -8640,7 +8944,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
+          <t>LU_UrbFab_origin</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -8653,7 +8957,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
+          <t>LU_Comm_origin</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -8663,19 +8967,6 @@
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>LU_Comm_origin</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
